--- a/OrderForms/flathold.xlsx
+++ b/OrderForms/flathold.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="jacob"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="33600" windowHeight="20535" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="33600" windowHeight="20535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Holds" sheetId="1" r:id="rId4"/>
@@ -39,17 +39,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715363710" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715363710" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715363710" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715363710"/>
+      <pm:revision xmlns:pm="smNativeData" day="1715850695" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1715850695" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1715850695" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1715850695"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="466">
   <si>
     <t>brand:Flathold;start:4;End:249;Range:A;Reference:C;Colors:F-&gt;M;productName:Holds</t>
   </si>
@@ -75,7 +75,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1715363710">
+            <pm:charSpec xmlns:pm="smNativeData" id="1715850695">
               <pm:latin face="Helvetica" sz="200" weight="normal" i="0"/>
               <pm:cs sz="360"/>
               <pm:ea sz="360"/>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t>Set/Colors</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
   <si>
     <t>Holds Price</t>
@@ -1039,7 +1042,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1715363710">
+            <pm:charSpec xmlns:pm="smNativeData" id="1715850695">
               <pm:latin face="Helvetica" sz="200" weight="normal" i="0"/>
               <pm:cs sz="360"/>
               <pm:ea sz="360"/>
@@ -1207,9 +1210,6 @@
     <t>V.07.04</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>V.07.05</t>
   </si>
   <si>
@@ -1358,6 +1358,9 @@
   </si>
   <si>
     <t>UTURN Insert (incl. Bolt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>M / Easy</t>
@@ -1538,7 +1541,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1553,7 +1556,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1567,7 +1570,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1582,7 +1585,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1596,7 +1599,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1611,7 +1614,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="360" lang="default"/>
             <pm:cs face="Basic Roman" sz="360" lang="default"/>
             <pm:ea face="Basic Roman" sz="360" lang="default"/>
@@ -1626,7 +1629,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1641,7 +1644,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" fgClr="DD0806" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="DD0806" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1656,7 +1659,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1670,7 +1673,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1685,7 +1688,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Helvetica Neue" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1701,7 +1704,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="140" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="140" lang="default" weight="bold"/>
@@ -1716,7 +1719,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Verdana" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1731,7 +1734,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1747,7 +1750,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="140" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="140" lang="default" weight="bold"/>
@@ -1762,7 +1765,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="single" kern="1">
             <pm:latin face="Helvetica Neue" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1777,7 +1780,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715363710" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="360" lang="default"/>
             <pm:ea face="Basic Roman" sz="360" lang="default"/>
@@ -1799,7 +1802,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1810,7 +1813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1821,7 +1824,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1832,7 +1835,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1852,7 +1855,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1863,7 +1866,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1874,7 +1877,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1888,7 +1891,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1899,7 +1902,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1910,7 +1913,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1921,7 +1924,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1932,7 +1935,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1943,7 +1946,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1954,7 +1957,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1965,7 +1968,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1982,7 +1985,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1993,7 +1996,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2004,7 +2007,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2018,7 +2021,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2029,7 +2032,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2040,7 +2043,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2051,7 +2054,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2062,7 +2065,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2073,7 +2076,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2084,7 +2087,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2095,7 +2098,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2106,7 +2109,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2117,7 +2120,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2128,7 +2131,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2139,7 +2142,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2150,7 +2153,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2161,7 +2164,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2172,7 +2175,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2183,7 +2186,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2194,7 +2197,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2205,7 +2208,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2216,7 +2219,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2227,7 +2230,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2238,7 +2241,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2249,7 +2252,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2260,7 +2263,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2271,7 +2274,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2282,7 +2285,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2293,7 +2296,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2304,7 +2307,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2315,7 +2318,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2326,7 +2329,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2337,7 +2340,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2348,7 +2351,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2359,7 +2362,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2370,7 +2373,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2381,7 +2384,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2392,7 +2395,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2403,7 +2406,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2414,7 +2417,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2425,7 +2428,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2436,7 +2439,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2447,7 +2450,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2458,7 +2461,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2469,7 +2472,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2480,7 +2483,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2491,7 +2494,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2502,7 +2505,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2513,7 +2516,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FEBDB4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FEBDB4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2524,7 +2527,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2535,7 +2538,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2546,7 +2549,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2557,7 +2560,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2568,7 +2571,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2579,7 +2582,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2593,7 +2596,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2604,7 +2607,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2615,7 +2618,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2626,7 +2629,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2637,7 +2640,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2648,7 +2651,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2659,7 +2662,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2670,7 +2673,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2681,7 +2684,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2692,7 +2695,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2703,7 +2706,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2714,7 +2717,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2725,7 +2728,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2736,7 +2739,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2747,7 +2750,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2758,7 +2761,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2769,7 +2772,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2780,7 +2783,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2791,7 +2794,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2802,7 +2805,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2813,7 +2816,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2824,7 +2827,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2835,7 +2838,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2846,7 +2849,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2857,7 +2860,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2868,7 +2871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2879,7 +2882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2890,7 +2893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2901,7 +2904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2912,7 +2915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2923,7 +2926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2934,7 +2937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2945,7 +2948,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2956,7 +2959,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2967,7 +2970,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2978,7 +2981,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2989,7 +2992,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3000,7 +3003,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3011,7 +3014,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3022,7 +3025,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3033,7 +3036,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3044,7 +3047,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3055,7 +3058,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3066,7 +3069,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3077,7 +3080,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3088,7 +3091,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3099,7 +3102,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3110,7 +3113,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3121,7 +3124,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3132,7 +3135,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3143,7 +3146,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3154,7 +3157,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3165,7 +3168,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3185,7 +3188,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3196,7 +3199,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="003366FF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="003366FF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3207,7 +3210,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3218,7 +3221,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3229,7 +3232,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3240,7 +3243,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3251,7 +3254,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3262,7 +3265,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3273,7 +3276,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3284,7 +3287,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3295,7 +3298,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3306,7 +3309,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3320,7 +3323,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3331,7 +3334,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3342,7 +3345,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3353,7 +3356,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3364,7 +3367,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3375,7 +3378,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3386,7 +3389,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3397,7 +3400,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3408,7 +3411,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3419,7 +3422,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3430,7 +3433,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3441,7 +3444,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3452,7 +3455,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3463,7 +3466,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3474,7 +3477,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3485,7 +3488,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3496,7 +3499,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3507,7 +3510,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3518,7 +3521,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3529,7 +3532,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3540,7 +3543,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3551,7 +3554,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3562,7 +3565,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FF4BDF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF4BDF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3573,7 +3576,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="0012D938" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0012D938" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3584,7 +3587,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3595,7 +3598,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3606,7 +3609,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3617,7 +3620,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3628,7 +3631,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3639,7 +3642,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3650,7 +3653,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3661,7 +3664,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3672,7 +3675,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3683,7 +3686,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3703,7 +3706,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3714,7 +3717,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3725,7 +3728,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3736,7 +3739,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3747,7 +3750,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3758,7 +3761,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3769,7 +3772,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3780,7 +3783,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715363710" type="1" fgLvl="100" fgClr="00F8F8F8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F8F8F8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3802,7 +3805,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -3821,7 +3824,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3843,7 +3846,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3865,7 +3868,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3887,7 +3890,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3909,7 +3912,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3931,7 +3934,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3953,7 +3956,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3975,7 +3978,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -3994,7 +3997,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -4017,7 +4020,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -4041,7 +4044,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4062,7 +4065,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4083,7 +4086,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4104,7 +4107,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4123,7 +4126,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4142,7 +4145,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4161,7 +4164,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4180,7 +4183,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4199,7 +4202,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -4218,7 +4221,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4239,7 +4242,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4260,7 +4263,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4281,7 +4284,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4302,7 +4305,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4324,7 +4327,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4345,7 +4348,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4366,7 +4369,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4388,7 +4391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4410,7 +4413,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4432,7 +4435,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4454,7 +4457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4476,7 +4479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4498,7 +4501,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4520,7 +4523,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4542,7 +4545,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4563,7 +4566,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4584,7 +4587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4605,7 +4608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4626,7 +4629,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4647,7 +4650,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4668,7 +4671,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4690,7 +4693,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4712,7 +4715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4734,7 +4737,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4756,7 +4759,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4778,7 +4781,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4800,7 +4803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4822,7 +4825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4844,7 +4847,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4866,7 +4869,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4888,7 +4891,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4909,7 +4912,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4930,7 +4933,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4951,7 +4954,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4972,7 +4975,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4993,7 +4996,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5015,7 +5018,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5037,7 +5040,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5059,7 +5062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5081,7 +5084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5103,7 +5106,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -5122,7 +5125,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -5141,7 +5144,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -5160,7 +5163,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -5179,7 +5182,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -5198,7 +5201,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5219,7 +5222,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5240,7 +5243,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5261,7 +5264,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5282,7 +5285,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5303,7 +5306,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5325,7 +5328,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5347,7 +5350,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5369,7 +5372,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5391,7 +5394,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5413,7 +5416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5435,7 +5438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5457,7 +5460,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5478,7 +5481,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5499,7 +5502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -5521,7 +5524,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -5544,7 +5547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -5566,7 +5569,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5587,7 +5590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5608,7 +5611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5629,7 +5632,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5650,7 +5653,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5671,7 +5674,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5692,7 +5695,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5715,7 +5718,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5738,7 +5741,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5760,7 +5763,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5783,7 +5786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5804,7 +5807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5826,7 +5829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5849,7 +5852,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5872,7 +5875,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5895,7 +5898,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5917,7 +5920,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5938,7 +5941,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5960,7 +5963,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5983,7 +5986,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6006,7 +6009,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6029,7 +6032,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6052,7 +6055,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6075,7 +6078,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6098,7 +6101,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6119,7 +6122,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6141,7 +6144,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6162,7 +6165,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6185,7 +6188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6207,7 +6210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6230,7 +6233,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6252,7 +6255,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6274,7 +6277,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6296,7 +6299,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6319,7 +6322,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6342,7 +6345,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6365,7 +6368,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6388,7 +6391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6411,7 +6414,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6433,7 +6436,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6454,7 +6457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6476,7 +6479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6498,7 +6501,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6520,7 +6523,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6542,7 +6545,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6564,7 +6567,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6586,7 +6589,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6608,7 +6611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6630,7 +6633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6652,7 +6655,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6675,7 +6678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6697,7 +6700,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6719,7 +6722,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -6741,7 +6744,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6762,7 +6765,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -6785,7 +6788,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6807,7 +6810,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6830,7 +6833,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6853,7 +6856,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6876,7 +6879,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6899,7 +6902,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6921,7 +6924,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6942,7 +6945,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6964,7 +6967,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6986,7 +6989,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -7009,7 +7012,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7030,7 +7033,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7051,7 +7054,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7072,7 +7075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7093,7 +7096,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7114,7 +7117,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7135,7 +7138,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7156,7 +7159,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7178,7 +7181,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7200,7 +7203,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7222,7 +7225,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7244,7 +7247,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7266,7 +7269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7289,7 +7292,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7311,7 +7314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7332,7 +7335,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7353,7 +7356,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7374,7 +7377,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7395,7 +7398,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7416,7 +7419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7437,7 +7440,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7459,7 +7462,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7480,7 +7483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7501,7 +7504,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7522,7 +7525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7544,7 +7547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7565,7 +7568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7586,7 +7589,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7607,7 +7610,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7628,7 +7631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7649,7 +7652,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
         </ext>
@@ -7670,7 +7673,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
         </ext>
@@ -7691,7 +7694,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7712,7 +7715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7734,7 +7737,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7755,7 +7758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7778,7 +7781,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7800,7 +7803,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7822,7 +7825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7844,7 +7847,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7865,7 +7868,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7886,7 +7889,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7908,7 +7911,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710"/>
+          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
         </ext>
       </extLst>
     </border>
@@ -7927,7 +7930,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7948,7 +7951,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715363710">
+          <pm:border xmlns:pm="smNativeData" id="1715850695">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -9423,10 +9426,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715363710" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1715850695" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715363710" count="31">
+      <pm:colors xmlns:pm="smNativeData" id="1715850695" count="31">
         <pm:color name="Color 24" rgb="DD0806"/>
         <pm:color name="Color 25" rgb="0563C1"/>
         <pm:color name="Color 26" rgb="800080"/>
@@ -9475,9 +9478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
+      <xdr:colOff>215265</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>788035</xdr:rowOff>
+      <xdr:rowOff>473710</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="">
       <xdr:nvPicPr>
@@ -9485,7 +9488,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_fl8+ZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAD1HgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAKgABAAAABgAAABYC0QEuAAAAQAEAAJURAADZBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAD1HgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAKgABAAAABgAAABYC0QEuAAAAQAEAAMIRAADqAgAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9499,7 +9502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29210" y="203200"/>
-          <a:ext cx="2858135" cy="788035"/>
+          <a:ext cx="2886710" cy="473710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9540,7 +9543,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_fl8+ZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACnDwAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAABgAAAH4D9gEAAAAAkAEAAC0QAADYBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACnDwAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAABgAAAH4D9gEAAAAAkAEAAC0QAADYBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9590,7 +9593,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_fl8+ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADsAAAAFAAAA+AG3ADsAAAALAAAANwKnBHQLAABURQAAzhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADsAAAAFAAAA+AG3ADsAAAALAAAANwKnBHQLAABURQAAzhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9636,7 +9639,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_fl8+ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEFBQUEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADwAAAAFAAAAuQHJADwAAAALAAAA+AG7BIQLAABIRgAAvhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEFBQUEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADwAAAAFAAAAuQHJADwAAAALAAAA+AG7BIQLAABIRgAAvhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9682,7 +9685,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_fl8+ZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIULAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAD0AAAAFAAAA+AG3AD0AAAALAAAANwK7BHQLAABcRwAAzhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIULAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAD0AAAAFAAAA+AG3AD0AAAALAAAANwK7BHQLAABcRwAAzhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9734,7 +9737,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_fl8+ZhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAEcB+AAAAAAAPAEAAOgMAAD4AgAAAQAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAEcB+AAAAAAAPAEAAOgMAAD4AgAAAQAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9789,7 +9792,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_fl8+ZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAADQADgABAAAAAwAAAKMCNgEUAAAAuwEAAPcVAACoBQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAADQADgABAAAAAwAAAKMCNgEUAAAAuwEAAPcVAACoBQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9844,7 +9847,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_fl8+ZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAIgCsgQAAAAAPAEAAJgRAADYBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAIgCsgQAAAAAPAEAAJgRAADYBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -10134,11 +10137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:IK262"/>
+  <dimension ref="A1:V262"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="normal" zoomScale="205" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F126" sqref="C125:F126"/>
+    <sheetView showGridLines="0" tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="7" defaultColWidth="7.744361" defaultRowHeight="20" customHeight="1"/>
@@ -10148,15 +10151,15 @@
     <col min="4" max="4" width="4.496241" customWidth="1" style="2"/>
     <col min="5" max="5" width="5.496241" customWidth="1" style="37"/>
     <col min="6" max="6" width="6.000000" customWidth="1" style="2"/>
-    <col min="7" max="7" width="4.864662" customWidth="1" style="2"/>
-    <col min="8" max="8" width="4.360902" customWidth="1" style="2"/>
-    <col min="9" max="9" width="4.864662" customWidth="1" style="2"/>
-    <col min="10" max="10" width="6.864662" customWidth="1" style="2"/>
-    <col min="11" max="11" width="6.000000" customWidth="1" style="2"/>
-    <col min="12" max="12" width="5.360902" customWidth="1" style="2"/>
-    <col min="13" max="13" width="5.864662" customWidth="1" style="2"/>
-    <col min="14" max="14" width="3.496241" customWidth="1" style="2"/>
-    <col min="15" max="15" width="4.360902" customWidth="1" style="2"/>
+    <col min="7" max="7" width="5.609023" customWidth="1" style="2"/>
+    <col min="8" max="8" width="4.684211" customWidth="1" style="2"/>
+    <col min="9" max="9" width="5.120301" customWidth="1" style="2"/>
+    <col min="10" max="10" width="7.639098" customWidth="1" style="2"/>
+    <col min="11" max="11" width="6.789474" customWidth="1" style="2"/>
+    <col min="12" max="12" width="6.090226" customWidth="1" style="2"/>
+    <col min="13" max="13" width="6.436090" customWidth="1" style="2"/>
+    <col min="14" max="14" width="6.669173" customWidth="1" style="2"/>
+    <col min="15" max="15" width="4.345865" customWidth="1" style="2"/>
     <col min="16" max="16" width="6.000000" customWidth="1" style="148"/>
     <col min="17" max="17" width="9.120301" customWidth="1" style="2"/>
     <col min="18" max="247" width="7.744361" style="2"/>
@@ -10188,7 +10191,7 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="119" customHeight="1">
+    <row r="2" spans="1:22" ht="71.55" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10214,7 +10217,7 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="39.75" customHeight="1">
+    <row r="3" spans="1:22" ht="25.45" customHeight="1">
       <c r="A3" s="449" t="s">
         <v>2</v>
       </c>
@@ -10240,7 +10243,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1">
+    <row r="4" spans="1:22" ht="11.30" customHeight="1">
       <c r="A4" s="327" t="s">
         <v>3</v>
       </c>
@@ -10312,10 +10315,10 @@
       <c r="E5" s="209" t="n">
         <v>165</v>
       </c>
-      <c r="F5" s="210" t="n">
+      <c r="F5" s="210"/>
+      <c r="G5" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="151"/>
       <c r="H5" s="152"/>
       <c r="I5" s="153"/>
       <c r="J5" s="154"/>
@@ -10355,10 +10358,10 @@
       <c r="E6" s="211" t="n">
         <v>165</v>
       </c>
-      <c r="F6" s="212" t="n">
+      <c r="F6" s="212"/>
+      <c r="G6" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="339"/>
       <c r="H6" s="340"/>
       <c r="I6" s="341"/>
       <c r="J6" s="342"/>
@@ -10398,10 +10401,10 @@
       <c r="E7" s="211" t="n">
         <v>165</v>
       </c>
-      <c r="F7" s="212" t="n">
+      <c r="F7" s="212"/>
+      <c r="G7" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="339"/>
       <c r="H7" s="340"/>
       <c r="I7" s="341"/>
       <c r="J7" s="342"/>
@@ -10441,10 +10444,10 @@
       <c r="E8" s="211" t="n">
         <v>83</v>
       </c>
-      <c r="F8" s="212" t="n">
+      <c r="F8" s="212"/>
+      <c r="G8" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="339"/>
       <c r="H8" s="340"/>
       <c r="I8" s="341"/>
       <c r="J8" s="342"/>
@@ -10484,10 +10487,10 @@
       <c r="E9" s="211" t="n">
         <v>206</v>
       </c>
-      <c r="F9" s="212" t="n">
+      <c r="F9" s="212"/>
+      <c r="G9" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="339"/>
       <c r="H9" s="340"/>
       <c r="I9" s="341"/>
       <c r="J9" s="342"/>
@@ -10816,16 +10819,16 @@
       <c r="E17" s="215" t="n">
         <v>271</v>
       </c>
-      <c r="F17" s="216" t="n">
-        <v>1</v>
-      </c>
+      <c r="F17" s="216"/>
       <c r="G17" s="102"/>
       <c r="H17" s="103"/>
       <c r="I17" s="104"/>
       <c r="J17" s="105"/>
       <c r="K17" s="106"/>
       <c r="L17" s="107"/>
-      <c r="M17" s="232"/>
+      <c r="M17" s="232" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" s="233">
         <f>SUM(F17:M17)</f>
         <v>1</v>
@@ -10982,16 +10985,16 @@
       <c r="E21" s="215" t="n">
         <v>183</v>
       </c>
-      <c r="F21" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F21" s="218"/>
       <c r="G21" s="339"/>
       <c r="H21" s="340"/>
       <c r="I21" s="341"/>
       <c r="J21" s="342"/>
       <c r="K21" s="343"/>
       <c r="L21" s="344"/>
-      <c r="M21" s="228"/>
+      <c r="M21" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="229">
         <f>SUM(F21:M21)</f>
         <v>1</v>
@@ -11025,16 +11028,16 @@
       <c r="E22" s="211" t="n">
         <v>234</v>
       </c>
-      <c r="F22" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F22" s="218"/>
       <c r="G22" s="339"/>
       <c r="H22" s="340"/>
       <c r="I22" s="341"/>
       <c r="J22" s="342"/>
       <c r="K22" s="343"/>
       <c r="L22" s="344"/>
-      <c r="M22" s="228"/>
+      <c r="M22" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N22" s="233">
         <f>SUM(F22:M22)</f>
         <v>1</v>
@@ -11068,16 +11071,16 @@
       <c r="E23" s="215" t="n">
         <v>234</v>
       </c>
-      <c r="F23" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F23" s="218"/>
       <c r="G23" s="41"/>
       <c r="H23" s="40"/>
       <c r="I23" s="39"/>
       <c r="J23" s="42"/>
       <c r="K23" s="44"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="234"/>
+      <c r="M23" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N23" s="229">
         <f>SUM(F23:M23)</f>
         <v>1</v>
@@ -11111,16 +11114,16 @@
       <c r="E24" s="211" t="n">
         <v>200</v>
       </c>
-      <c r="F24" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F24" s="218"/>
       <c r="G24" s="339"/>
       <c r="H24" s="340"/>
       <c r="I24" s="341"/>
       <c r="J24" s="342"/>
       <c r="K24" s="343"/>
       <c r="L24" s="344"/>
-      <c r="M24" s="228"/>
+      <c r="M24" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N24" s="233">
         <f>SUM(F24:M24)</f>
         <v>1</v>
@@ -11154,16 +11157,16 @@
       <c r="E25" s="215" t="n">
         <v>153</v>
       </c>
-      <c r="F25" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F25" s="217"/>
       <c r="G25" s="41"/>
       <c r="H25" s="40"/>
       <c r="I25" s="39"/>
       <c r="J25" s="42"/>
       <c r="K25" s="44"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="234"/>
+      <c r="M25" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N25" s="229">
         <f>SUM(F25:M25)</f>
         <v>1</v>
@@ -11197,16 +11200,16 @@
       <c r="E26" s="211" t="n">
         <v>100</v>
       </c>
-      <c r="F26" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F26" s="218"/>
       <c r="G26" s="339"/>
       <c r="H26" s="340"/>
       <c r="I26" s="341"/>
       <c r="J26" s="342"/>
       <c r="K26" s="343"/>
       <c r="L26" s="344"/>
-      <c r="M26" s="228"/>
+      <c r="M26" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N26" s="233">
         <f>SUM(F26:M26)</f>
         <v>1</v>
@@ -11240,16 +11243,16 @@
       <c r="E27" s="215" t="n">
         <v>53</v>
       </c>
-      <c r="F27" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F27" s="218"/>
       <c r="G27" s="339"/>
       <c r="H27" s="340"/>
       <c r="I27" s="341"/>
       <c r="J27" s="342"/>
       <c r="K27" s="343"/>
       <c r="L27" s="344"/>
-      <c r="M27" s="228"/>
+      <c r="M27" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N27" s="229">
         <f>SUM(F27:M27)</f>
         <v>1</v>
@@ -11283,16 +11286,16 @@
       <c r="E28" s="211" t="n">
         <v>37</v>
       </c>
-      <c r="F28" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F28" s="217"/>
       <c r="G28" s="41"/>
       <c r="H28" s="40"/>
       <c r="I28" s="39"/>
       <c r="J28" s="42"/>
       <c r="K28" s="44"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="234"/>
+      <c r="M28" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N28" s="233">
         <f>SUM(F28:M28)</f>
         <v>1</v>
@@ -11326,16 +11329,16 @@
       <c r="E29" s="215" t="n">
         <v>130</v>
       </c>
-      <c r="F29" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F29" s="218"/>
       <c r="G29" s="339"/>
       <c r="H29" s="340"/>
       <c r="I29" s="341"/>
       <c r="J29" s="342"/>
       <c r="K29" s="343"/>
       <c r="L29" s="344"/>
-      <c r="M29" s="228"/>
+      <c r="M29" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N29" s="229">
         <f>SUM(F29:M29)</f>
         <v>1</v>
@@ -11574,16 +11577,16 @@
       <c r="E35" s="215" t="n">
         <v>21</v>
       </c>
-      <c r="F35" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F35" s="217"/>
       <c r="G35" s="41"/>
       <c r="H35" s="40"/>
       <c r="I35" s="39"/>
       <c r="J35" s="42"/>
       <c r="K35" s="44"/>
       <c r="L35" s="43"/>
-      <c r="M35" s="234"/>
+      <c r="M35" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N35" s="229">
         <f>SUM(F35:M35)</f>
         <v>1</v>
@@ -11617,16 +11620,16 @@
       <c r="E36" s="211" t="n">
         <v>177</v>
       </c>
-      <c r="F36" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F36" s="218"/>
       <c r="G36" s="339"/>
       <c r="H36" s="340"/>
       <c r="I36" s="341"/>
       <c r="J36" s="342"/>
       <c r="K36" s="343"/>
       <c r="L36" s="344"/>
-      <c r="M36" s="228"/>
+      <c r="M36" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N36" s="233">
         <f>SUM(F36:M36)</f>
         <v>1</v>
@@ -11660,16 +11663,16 @@
       <c r="E37" s="215" t="n">
         <v>177</v>
       </c>
-      <c r="F37" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F37" s="218"/>
       <c r="G37" s="339"/>
       <c r="H37" s="340"/>
       <c r="I37" s="341"/>
       <c r="J37" s="342"/>
       <c r="K37" s="343"/>
       <c r="L37" s="344"/>
-      <c r="M37" s="228"/>
+      <c r="M37" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N37" s="229">
         <f>SUM(F37:M37)</f>
         <v>1</v>
@@ -11703,16 +11706,16 @@
       <c r="E38" s="211" t="n">
         <v>177</v>
       </c>
-      <c r="F38" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F38" s="217"/>
       <c r="G38" s="41"/>
       <c r="H38" s="40"/>
       <c r="I38" s="39"/>
       <c r="J38" s="42"/>
       <c r="K38" s="44"/>
       <c r="L38" s="43"/>
-      <c r="M38" s="234"/>
+      <c r="M38" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N38" s="233">
         <f>SUM(F38:M38)</f>
         <v>1</v>
@@ -11746,16 +11749,16 @@
       <c r="E39" s="215" t="n">
         <v>165</v>
       </c>
-      <c r="F39" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F39" s="218"/>
       <c r="G39" s="339"/>
       <c r="H39" s="340"/>
       <c r="I39" s="341"/>
       <c r="J39" s="342"/>
       <c r="K39" s="343"/>
       <c r="L39" s="344"/>
-      <c r="M39" s="228"/>
+      <c r="M39" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N39" s="229">
         <f>SUM(F39:M39)</f>
         <v>1</v>
@@ -11789,16 +11792,16 @@
       <c r="E40" s="211" t="n">
         <v>94</v>
       </c>
-      <c r="F40" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F40" s="217"/>
       <c r="G40" s="41"/>
       <c r="H40" s="40"/>
       <c r="I40" s="39"/>
       <c r="J40" s="42"/>
       <c r="K40" s="44"/>
       <c r="L40" s="43"/>
-      <c r="M40" s="234"/>
+      <c r="M40" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N40" s="233">
         <f>SUM(F40:M40)</f>
         <v>1</v>
@@ -11832,16 +11835,16 @@
       <c r="E41" s="215" t="n">
         <v>111</v>
       </c>
-      <c r="F41" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F41" s="218"/>
       <c r="G41" s="339"/>
       <c r="H41" s="340"/>
       <c r="I41" s="341"/>
       <c r="J41" s="342"/>
       <c r="K41" s="343"/>
       <c r="L41" s="344"/>
-      <c r="M41" s="228"/>
+      <c r="M41" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N41" s="229">
         <f>SUM(F41:M41)</f>
         <v>1</v>
@@ -11875,16 +11878,16 @@
       <c r="E42" s="211" t="n">
         <v>111</v>
       </c>
-      <c r="F42" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F42" s="218"/>
       <c r="G42" s="339"/>
       <c r="H42" s="340"/>
       <c r="I42" s="341"/>
       <c r="J42" s="342"/>
       <c r="K42" s="343"/>
       <c r="L42" s="344"/>
-      <c r="M42" s="228"/>
+      <c r="M42" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N42" s="233">
         <f>SUM(F42:M42)</f>
         <v>1</v>
@@ -11918,16 +11921,16 @@
       <c r="E43" s="215" t="n">
         <v>111</v>
       </c>
-      <c r="F43" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F43" s="217"/>
       <c r="G43" s="41"/>
       <c r="H43" s="40"/>
       <c r="I43" s="39"/>
       <c r="J43" s="42"/>
       <c r="K43" s="44"/>
       <c r="L43" s="43"/>
-      <c r="M43" s="234"/>
+      <c r="M43" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N43" s="229">
         <f>SUM(F43:M43)</f>
         <v>1</v>
@@ -11961,16 +11964,16 @@
       <c r="E44" s="211" t="n">
         <v>111</v>
       </c>
-      <c r="F44" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F44" s="218"/>
       <c r="G44" s="339"/>
       <c r="H44" s="340"/>
       <c r="I44" s="341"/>
       <c r="J44" s="342"/>
       <c r="K44" s="343"/>
       <c r="L44" s="344"/>
-      <c r="M44" s="228"/>
+      <c r="M44" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N44" s="233">
         <f>SUM(F44:M44)</f>
         <v>1</v>
@@ -12209,16 +12212,16 @@
       <c r="E50" s="211" t="n">
         <v>103</v>
       </c>
-      <c r="F50" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F50" s="217"/>
       <c r="G50" s="41"/>
       <c r="H50" s="40"/>
       <c r="I50" s="39"/>
       <c r="J50" s="42"/>
       <c r="K50" s="44"/>
       <c r="L50" s="43"/>
-      <c r="M50" s="234"/>
+      <c r="M50" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N50" s="229">
         <f>SUM(F50:M50)</f>
         <v>1</v>
@@ -12252,16 +12255,16 @@
       <c r="E51" s="215" t="n">
         <v>68</v>
       </c>
-      <c r="F51" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F51" s="218"/>
       <c r="G51" s="339"/>
       <c r="H51" s="340"/>
       <c r="I51" s="341"/>
       <c r="J51" s="342"/>
       <c r="K51" s="343"/>
       <c r="L51" s="344"/>
-      <c r="M51" s="228"/>
+      <c r="M51" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N51" s="233">
         <f>SUM(F51:M51)</f>
         <v>1</v>
@@ -12295,16 +12298,16 @@
       <c r="E52" s="211" t="n">
         <v>56</v>
       </c>
-      <c r="F52" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F52" s="218"/>
       <c r="G52" s="339"/>
       <c r="H52" s="340"/>
       <c r="I52" s="341"/>
       <c r="J52" s="342"/>
       <c r="K52" s="343"/>
       <c r="L52" s="344"/>
-      <c r="M52" s="228"/>
+      <c r="M52" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N52" s="229">
         <f>SUM(F52:M52)</f>
         <v>1</v>
@@ -12338,16 +12341,16 @@
       <c r="E53" s="215" t="n">
         <v>28</v>
       </c>
-      <c r="F53" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F53" s="217"/>
       <c r="G53" s="41"/>
       <c r="H53" s="40"/>
       <c r="I53" s="39"/>
       <c r="J53" s="42"/>
       <c r="K53" s="44"/>
       <c r="L53" s="43"/>
-      <c r="M53" s="234"/>
+      <c r="M53" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N53" s="233">
         <f>SUM(F53:M53)</f>
         <v>1</v>
@@ -12381,16 +12384,16 @@
       <c r="E54" s="211" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F54" s="218"/>
       <c r="G54" s="339"/>
       <c r="H54" s="340"/>
       <c r="I54" s="341"/>
       <c r="J54" s="342"/>
       <c r="K54" s="343"/>
       <c r="L54" s="344"/>
-      <c r="M54" s="228"/>
+      <c r="M54" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N54" s="229">
         <f>SUM(F54:M54)</f>
         <v>1</v>
@@ -12424,16 +12427,16 @@
       <c r="E55" s="215" t="n">
         <v>26</v>
       </c>
-      <c r="F55" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F55" s="217"/>
       <c r="G55" s="41"/>
       <c r="H55" s="40"/>
       <c r="I55" s="39"/>
       <c r="J55" s="42"/>
       <c r="K55" s="44"/>
       <c r="L55" s="43"/>
-      <c r="M55" s="234"/>
+      <c r="M55" s="234" t="n">
+        <v>1</v>
+      </c>
       <c r="N55" s="233">
         <f>SUM(F55:M55)</f>
         <v>1</v>
@@ -12467,16 +12470,16 @@
       <c r="E56" s="211" t="n">
         <v>17</v>
       </c>
-      <c r="F56" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F56" s="218"/>
       <c r="G56" s="339"/>
       <c r="H56" s="340"/>
       <c r="I56" s="341"/>
       <c r="J56" s="342"/>
       <c r="K56" s="343"/>
       <c r="L56" s="344"/>
-      <c r="M56" s="228"/>
+      <c r="M56" s="228" t="n">
+        <v>1</v>
+      </c>
       <c r="N56" s="229">
         <f>SUM(F56:M56)</f>
         <v>1</v>
@@ -12510,16 +12513,16 @@
       <c r="E57" s="219" t="n">
         <v>15</v>
       </c>
-      <c r="F57" s="220" t="n">
-        <v>1</v>
-      </c>
+      <c r="F57" s="220"/>
       <c r="G57" s="96"/>
       <c r="H57" s="97"/>
       <c r="I57" s="98"/>
       <c r="J57" s="99"/>
       <c r="K57" s="100"/>
       <c r="L57" s="101"/>
-      <c r="M57" s="230"/>
+      <c r="M57" s="230" t="n">
+        <v>1</v>
+      </c>
       <c r="N57" s="231">
         <f>SUM(F57:M57)</f>
         <v>1</v>
@@ -14285,12 +14288,12 @@
       <c r="E100" s="215" t="n">
         <v>134</v>
       </c>
-      <c r="F100" s="217" t="n">
-        <v>2</v>
-      </c>
+      <c r="F100" s="217"/>
       <c r="G100" s="41"/>
       <c r="H100" s="40"/>
-      <c r="I100" s="39"/>
+      <c r="I100" s="39" t="n">
+        <v>2</v>
+      </c>
       <c r="J100" s="42"/>
       <c r="K100" s="44"/>
       <c r="L100" s="43"/>
@@ -14328,12 +14331,12 @@
       <c r="E101" s="211" t="n">
         <v>106</v>
       </c>
-      <c r="F101" s="218" t="n">
-        <v>2</v>
-      </c>
+      <c r="F101" s="218"/>
       <c r="G101" s="339"/>
       <c r="H101" s="340"/>
-      <c r="I101" s="341"/>
+      <c r="I101" s="341" t="n">
+        <v>2</v>
+      </c>
       <c r="J101" s="342"/>
       <c r="K101" s="343"/>
       <c r="L101" s="344"/>
@@ -14371,12 +14374,12 @@
       <c r="E102" s="215" t="n">
         <v>123</v>
       </c>
-      <c r="F102" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F102" s="218"/>
       <c r="G102" s="339"/>
       <c r="H102" s="340"/>
-      <c r="I102" s="341"/>
+      <c r="I102" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J102" s="342"/>
       <c r="K102" s="343"/>
       <c r="L102" s="344"/>
@@ -14414,12 +14417,12 @@
       <c r="E103" s="211" t="n">
         <v>121</v>
       </c>
-      <c r="F103" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F103" s="217"/>
       <c r="G103" s="41"/>
       <c r="H103" s="40"/>
-      <c r="I103" s="39"/>
+      <c r="I103" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J103" s="42"/>
       <c r="K103" s="44"/>
       <c r="L103" s="43"/>
@@ -14457,12 +14460,12 @@
       <c r="E104" s="215" t="n">
         <v>118</v>
       </c>
-      <c r="F104" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F104" s="218"/>
       <c r="G104" s="339"/>
       <c r="H104" s="340"/>
-      <c r="I104" s="341"/>
+      <c r="I104" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J104" s="342"/>
       <c r="K104" s="343"/>
       <c r="L104" s="344"/>
@@ -14500,12 +14503,12 @@
       <c r="E105" s="211" t="n">
         <v>196</v>
       </c>
-      <c r="F105" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F105" s="217"/>
       <c r="G105" s="41"/>
       <c r="H105" s="40"/>
-      <c r="I105" s="39"/>
+      <c r="I105" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J105" s="42"/>
       <c r="K105" s="44"/>
       <c r="L105" s="43"/>
@@ -14543,12 +14546,12 @@
       <c r="E106" s="215" t="n">
         <v>87</v>
       </c>
-      <c r="F106" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F106" s="218"/>
       <c r="G106" s="339"/>
       <c r="H106" s="340"/>
-      <c r="I106" s="341"/>
+      <c r="I106" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J106" s="342"/>
       <c r="K106" s="343"/>
       <c r="L106" s="344"/>
@@ -14586,12 +14589,12 @@
       <c r="E107" s="211" t="n">
         <v>103</v>
       </c>
-      <c r="F107" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F107" s="218"/>
       <c r="G107" s="339"/>
       <c r="H107" s="340"/>
-      <c r="I107" s="341"/>
+      <c r="I107" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J107" s="342"/>
       <c r="K107" s="343"/>
       <c r="L107" s="344"/>
@@ -14629,12 +14632,12 @@
       <c r="E108" s="215" t="n">
         <v>84</v>
       </c>
-      <c r="F108" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F108" s="217"/>
       <c r="G108" s="41"/>
       <c r="H108" s="40"/>
-      <c r="I108" s="39"/>
+      <c r="I108" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J108" s="42"/>
       <c r="K108" s="44"/>
       <c r="L108" s="43"/>
@@ -14672,12 +14675,12 @@
       <c r="E109" s="211" t="n">
         <v>151</v>
       </c>
-      <c r="F109" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F109" s="218"/>
       <c r="G109" s="339"/>
       <c r="H109" s="340"/>
-      <c r="I109" s="341"/>
+      <c r="I109" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J109" s="342"/>
       <c r="K109" s="343"/>
       <c r="L109" s="344"/>
@@ -14715,12 +14718,12 @@
       <c r="E110" s="215" t="n">
         <v>103</v>
       </c>
-      <c r="F110" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F110" s="218"/>
       <c r="G110" s="41"/>
       <c r="H110" s="40"/>
-      <c r="I110" s="39"/>
+      <c r="I110" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J110" s="42"/>
       <c r="K110" s="44"/>
       <c r="L110" s="43"/>
@@ -14758,12 +14761,12 @@
       <c r="E111" s="211" t="n">
         <v>103</v>
       </c>
-      <c r="F111" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F111" s="217"/>
       <c r="G111" s="339"/>
       <c r="H111" s="340"/>
-      <c r="I111" s="341"/>
+      <c r="I111" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J111" s="342"/>
       <c r="K111" s="343"/>
       <c r="L111" s="344"/>
@@ -14801,12 +14804,12 @@
       <c r="E112" s="215" t="n">
         <v>74</v>
       </c>
-      <c r="F112" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F112" s="218"/>
       <c r="G112" s="339"/>
       <c r="H112" s="340"/>
-      <c r="I112" s="341"/>
+      <c r="I112" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J112" s="342"/>
       <c r="K112" s="343"/>
       <c r="L112" s="344"/>
@@ -14844,12 +14847,12 @@
       <c r="E113" s="211" t="n">
         <v>47</v>
       </c>
-      <c r="F113" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F113" s="218"/>
       <c r="G113" s="41"/>
       <c r="H113" s="40"/>
-      <c r="I113" s="39"/>
+      <c r="I113" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J113" s="42"/>
       <c r="K113" s="44"/>
       <c r="L113" s="43"/>
@@ -14887,12 +14890,12 @@
       <c r="E114" s="211" t="n">
         <v>28</v>
       </c>
-      <c r="F114" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F114" s="218"/>
       <c r="G114" s="339"/>
       <c r="H114" s="340"/>
-      <c r="I114" s="341"/>
+      <c r="I114" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J114" s="342"/>
       <c r="K114" s="343"/>
       <c r="L114" s="344"/>
@@ -14930,12 +14933,12 @@
       <c r="E115" s="211" t="n">
         <v>21</v>
       </c>
-      <c r="F115" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F115" s="217"/>
       <c r="G115" s="41"/>
       <c r="H115" s="40"/>
-      <c r="I115" s="39"/>
+      <c r="I115" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J115" s="42"/>
       <c r="K115" s="44"/>
       <c r="L115" s="43"/>
@@ -14973,12 +14976,12 @@
       <c r="E116" s="211" t="n">
         <v>20</v>
       </c>
-      <c r="F116" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F116" s="218"/>
       <c r="G116" s="339"/>
       <c r="H116" s="340"/>
-      <c r="I116" s="341"/>
+      <c r="I116" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J116" s="342"/>
       <c r="K116" s="343"/>
       <c r="L116" s="344"/>
@@ -15016,12 +15019,12 @@
       <c r="E117" s="211" t="n">
         <v>24</v>
       </c>
-      <c r="F117" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F117" s="218"/>
       <c r="G117" s="339"/>
       <c r="H117" s="340"/>
-      <c r="I117" s="341"/>
+      <c r="I117" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J117" s="342"/>
       <c r="K117" s="343"/>
       <c r="L117" s="344"/>
@@ -15059,12 +15062,12 @@
       <c r="E118" s="211" t="n">
         <v>24</v>
       </c>
-      <c r="F118" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F118" s="217"/>
       <c r="G118" s="41"/>
       <c r="H118" s="40"/>
-      <c r="I118" s="39"/>
+      <c r="I118" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J118" s="42"/>
       <c r="K118" s="44"/>
       <c r="L118" s="43"/>
@@ -15102,12 +15105,12 @@
       <c r="E119" s="211" t="n">
         <v>20</v>
       </c>
-      <c r="F119" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F119" s="218"/>
       <c r="G119" s="339"/>
       <c r="H119" s="340"/>
-      <c r="I119" s="341"/>
+      <c r="I119" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J119" s="342"/>
       <c r="K119" s="343"/>
       <c r="L119" s="344"/>
@@ -15145,12 +15148,12 @@
       <c r="E120" s="211" t="n">
         <v>21</v>
       </c>
-      <c r="F120" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F120" s="217"/>
       <c r="G120" s="41"/>
       <c r="H120" s="40"/>
-      <c r="I120" s="39"/>
+      <c r="I120" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J120" s="42"/>
       <c r="K120" s="44"/>
       <c r="L120" s="43"/>
@@ -15188,12 +15191,12 @@
       <c r="E121" s="211" t="n">
         <v>21</v>
       </c>
-      <c r="F121" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F121" s="218"/>
       <c r="G121" s="339"/>
       <c r="H121" s="340"/>
-      <c r="I121" s="341"/>
+      <c r="I121" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J121" s="342"/>
       <c r="K121" s="343"/>
       <c r="L121" s="344"/>
@@ -15231,12 +15234,12 @@
       <c r="E122" s="211" t="n">
         <v>24</v>
       </c>
-      <c r="F122" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F122" s="218"/>
       <c r="G122" s="339"/>
       <c r="H122" s="340"/>
-      <c r="I122" s="341"/>
+      <c r="I122" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J122" s="342"/>
       <c r="K122" s="343"/>
       <c r="L122" s="344"/>
@@ -15274,12 +15277,12 @@
       <c r="E123" s="211" t="n">
         <v>22</v>
       </c>
-      <c r="F123" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F123" s="217"/>
       <c r="G123" s="41"/>
       <c r="H123" s="40"/>
-      <c r="I123" s="39"/>
+      <c r="I123" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J123" s="42"/>
       <c r="K123" s="44"/>
       <c r="L123" s="43"/>
@@ -15317,12 +15320,12 @@
       <c r="E124" s="211" t="n">
         <v>22</v>
       </c>
-      <c r="F124" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F124" s="218"/>
       <c r="G124" s="339"/>
       <c r="H124" s="340"/>
-      <c r="I124" s="341"/>
+      <c r="I124" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J124" s="342"/>
       <c r="K124" s="343"/>
       <c r="L124" s="344"/>
@@ -15360,12 +15363,12 @@
       <c r="E125" s="211" t="n">
         <v>22</v>
       </c>
-      <c r="F125" s="218" t="n">
-        <v>1</v>
-      </c>
+      <c r="F125" s="218"/>
       <c r="G125" s="339"/>
       <c r="H125" s="340"/>
-      <c r="I125" s="341"/>
+      <c r="I125" s="341" t="n">
+        <v>1</v>
+      </c>
       <c r="J125" s="342"/>
       <c r="K125" s="343"/>
       <c r="L125" s="344"/>
@@ -15403,12 +15406,12 @@
       <c r="E126" s="211" t="n">
         <v>22</v>
       </c>
-      <c r="F126" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F126" s="217"/>
       <c r="G126" s="41"/>
       <c r="H126" s="40"/>
-      <c r="I126" s="39"/>
+      <c r="I126" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="J126" s="42"/>
       <c r="K126" s="44"/>
       <c r="L126" s="43"/>
@@ -20298,7 +20301,7 @@
       <c r="U244" s="4"/>
       <c r="V244" s="4"/>
     </row>
-    <row r="245" spans="1:245" ht="12" customHeight="1">
+    <row r="245" spans="1:20" ht="12" customHeight="1">
       <c r="A245" s="46" t="s">
         <v>298</v>
       </c>
@@ -20345,11 +20348,11 @@
       <c r="E246" s="224"/>
       <c r="F246" s="225">
         <f>SUM(F5:F244)</f>
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="G246" s="247">
         <f>SUM(G5:G244)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H246" s="248">
         <f>SUM(H5:H244)</f>
@@ -20357,7 +20360,7 @@
       </c>
       <c r="I246" s="249">
         <f>SUM(I5:I244)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J246" s="250">
         <f>SUM(J5:J244)</f>
@@ -20373,7 +20376,7 @@
       </c>
       <c r="M246" s="253">
         <f>SUM(M5:M244)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N246" s="174"/>
       <c r="O246"/>
@@ -20397,7 +20400,9 @@
       <c r="I247" s="25"/>
       <c r="J247" s="25"/>
       <c r="K247" s="25"/>
-      <c r="L247" s="25"/>
+      <c r="L247" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="M247" s="25"/>
       <c r="N247" s="29"/>
       <c r="O247" s="29"/>
@@ -20424,7 +20429,7 @@
       <c r="L248" s="28"/>
       <c r="M248" s="28"/>
       <c r="N248" s="61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O248" s="62"/>
       <c r="P248" s="177">
@@ -20453,7 +20458,7 @@
       <c r="L249" s="34"/>
       <c r="M249" s="34"/>
       <c r="N249" s="63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O249" s="64"/>
       <c r="P249" s="145">
@@ -20482,7 +20487,7 @@
       <c r="L250" s="25"/>
       <c r="M250" s="25"/>
       <c r="N250" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O250" s="65"/>
       <c r="P250" s="146">
@@ -20511,12 +20516,12 @@
       <c r="L251" s="25"/>
       <c r="M251" s="25"/>
       <c r="N251" s="38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O251" s="91"/>
-      <c r="P251" s="176" t="e">
+      <c r="P251" s="176">
         <f>Volumes!P64</f>
-        <v>#VALUE!</v>
+        <v>13510</v>
       </c>
       <c r="Q251" s="23"/>
       <c r="R251" s="4"/>
@@ -20540,12 +20545,12 @@
       <c r="L252" s="25"/>
       <c r="M252" s="25"/>
       <c r="N252" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O252" s="433"/>
-      <c r="P252" s="434" t="e">
+      <c r="P252" s="434">
         <f>Volumes!P65</f>
-        <v>#VALUE!</v>
+        <v>64</v>
       </c>
       <c r="Q252" s="23"/>
       <c r="R252" s="4"/>
@@ -20569,12 +20574,12 @@
       <c r="L253" s="25"/>
       <c r="M253" s="25"/>
       <c r="N253" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O253" s="65"/>
-      <c r="P253" s="146" t="e">
+      <c r="P253" s="146">
         <f>Volumes!P66</f>
-        <v>#VALUE!</v>
+        <v>64</v>
       </c>
       <c r="Q253" s="23"/>
       <c r="R253" s="4"/>
@@ -20598,7 +20603,7 @@
       <c r="L254" s="25"/>
       <c r="M254" s="25"/>
       <c r="N254" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O254" s="62"/>
       <c r="P254" s="177">
@@ -20627,7 +20632,7 @@
       <c r="L255" s="25"/>
       <c r="M255" s="25"/>
       <c r="N255" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O255" s="65"/>
       <c r="P255" s="146">
@@ -20656,7 +20661,7 @@
       <c r="L256" s="25"/>
       <c r="M256" s="25"/>
       <c r="N256" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O256" s="404"/>
       <c r="P256" s="405">
@@ -20685,7 +20690,7 @@
       <c r="L257" s="25"/>
       <c r="M257" s="25"/>
       <c r="N257" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O257" s="65"/>
       <c r="P257" s="175">
@@ -20714,7 +20719,7 @@
       <c r="L258" s="25"/>
       <c r="M258" s="25"/>
       <c r="N258" s="63" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O258" s="64"/>
       <c r="P258" s="145">
@@ -20743,7 +20748,7 @@
       <c r="L259" s="25"/>
       <c r="M259" s="25"/>
       <c r="N259" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O259" s="65"/>
       <c r="P259" s="175">
@@ -20772,7 +20777,7 @@
       <c r="L260" s="25"/>
       <c r="M260" s="25"/>
       <c r="N260" s="74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O260" s="365"/>
       <c r="P260" s="366" t="n">
@@ -20799,7 +20804,7 @@
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O261" s="365"/>
       <c r="P261" s="366" t="n">
@@ -20827,12 +20832,12 @@
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O262" s="70"/>
-      <c r="P262" s="147" t="e">
+      <c r="P262" s="147">
         <f>P248+P251+P256+P257+P259-P260+P261+P254</f>
-        <v>#VALUE!</v>
+        <v>20739</v>
       </c>
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
@@ -20849,7 +20854,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715363710" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20859,8 +20864,8 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -20870,7 +20875,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715363710" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20883,9 +20888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:JE66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="normal" zoomScale="225" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" view="normal" zoomScale="215" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="7" defaultColWidth="8.120301" defaultRowHeight="13" customHeight="1"/>
@@ -20900,14 +20905,14 @@
     <col min="12" max="12" width="6.000000" customWidth="1" style="2"/>
     <col min="13" max="13" width="1.120301" customWidth="1" style="2"/>
     <col min="14" max="14" width="4.120301" customWidth="1" style="37"/>
-    <col min="15" max="15" width="4.360902" customWidth="1" style="37"/>
+    <col min="15" max="15" width="4.345865" customWidth="1" style="37"/>
     <col min="16" max="16" width="4.864662" customWidth="1" style="2"/>
     <col min="17" max="263" width="8.120301" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="20" customHeight="1">
+    <row r="1" spans="1:28" ht="20" customHeight="1">
       <c r="A1" s="367" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -20937,7 +20942,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:30" ht="71" customHeight="1">
+    <row r="2" spans="1:28" ht="71" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -20969,9 +20974,9 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="1:30" ht="58" customHeight="1">
+    <row r="3" spans="1:28" ht="58" customHeight="1">
       <c r="A3" s="406" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -21001,7 +21006,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="2:30" ht="23" customHeight="1">
+    <row r="4" spans="2:28" ht="23" customHeight="1">
       <c r="B4" s="172"/>
       <c r="C4" s="172"/>
       <c r="D4" s="172"/>
@@ -21030,30 +21035,30 @@
       <c r="AA4" s="172"/>
       <c r="AB4" s="172"/>
     </row>
-    <row r="5" spans="1:30" ht="20" customHeight="1">
+    <row r="5" spans="1:28" ht="20" customHeight="1">
       <c r="A5" s="327" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="327" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="327" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="327" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E5" s="329" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="333" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G5" s="330" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="368" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I5" s="369" t="s">
         <v>10</v>
@@ -21065,16 +21070,16 @@
         <v>13</v>
       </c>
       <c r="L5" s="432" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M5" s="430" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N5" s="372" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O5" s="372" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P5" s="373" t="s">
         <v>18</v>
@@ -21092,9 +21097,9 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
     </row>
-    <row r="6" spans="1:30" ht="24" customHeight="1">
+    <row r="6" spans="1:28" ht="24" customHeight="1">
       <c r="A6" s="161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B6" s="172"/>
       <c r="C6" s="172"/>
@@ -21124,15 +21129,15 @@
       <c r="AA6" s="172"/>
       <c r="AB6" s="172"/>
     </row>
-    <row r="7" spans="1:30" ht="12" customHeight="1">
+    <row r="7" spans="1:28" ht="12" customHeight="1">
       <c r="A7" s="160" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1</v>
@@ -21140,11 +21145,11 @@
       <c r="E7" s="209" t="n">
         <v>185</v>
       </c>
-      <c r="F7" s="197" t="n">
+      <c r="F7" s="197"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
       <c r="I7" s="110"/>
       <c r="J7" s="111"/>
       <c r="K7" s="112"/>
@@ -21175,13 +21180,13 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:30" ht="12" customHeight="1">
+    <row r="8" spans="1:28" ht="12" customHeight="1">
       <c r="A8" s="194"/>
       <c r="B8" s="73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D8" s="58" t="n">
         <v>1</v>
@@ -21189,11 +21194,11 @@
       <c r="E8" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F8" s="198" t="n">
+      <c r="F8" s="198"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114"/>
       <c r="I8" s="115"/>
       <c r="J8" s="116"/>
       <c r="K8" s="117"/>
@@ -21224,13 +21229,13 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:30" ht="12" customHeight="1">
+    <row r="9" spans="1:28" ht="12" customHeight="1">
       <c r="A9" s="194"/>
       <c r="B9" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
@@ -21238,11 +21243,11 @@
       <c r="E9" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F9" s="199" t="n">
+      <c r="F9" s="199"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
       <c r="I9" s="120"/>
       <c r="J9" s="121"/>
       <c r="K9" s="122"/>
@@ -21273,13 +21278,13 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
+    <row r="10" spans="1:28" ht="12" customHeight="1">
       <c r="A10" s="375"/>
       <c r="B10" s="73" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D10" s="58" t="n">
         <v>1</v>
@@ -21287,11 +21292,11 @@
       <c r="E10" s="213" t="n">
         <v>135</v>
       </c>
-      <c r="F10" s="200" t="n">
+      <c r="F10" s="200"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124"/>
       <c r="I10" s="125"/>
       <c r="J10" s="126"/>
       <c r="K10" s="127"/>
@@ -21322,15 +21327,15 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
+    <row r="11" spans="1:28" ht="12" customHeight="1">
       <c r="A11" s="160" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D11" s="8" t="n">
         <v>1</v>
@@ -21338,11 +21343,11 @@
       <c r="E11" s="221" t="n">
         <v>225</v>
       </c>
-      <c r="F11" s="197" t="n">
+      <c r="F11" s="197"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
       <c r="I11" s="110"/>
       <c r="J11" s="111"/>
       <c r="K11" s="112"/>
@@ -21373,13 +21378,13 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
+    <row r="12" spans="1:28" ht="12" customHeight="1">
       <c r="A12" s="194"/>
       <c r="B12" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>1</v>
@@ -21387,11 +21392,11 @@
       <c r="E12" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F12" s="198" t="n">
+      <c r="F12" s="198"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
       <c r="I12" s="115"/>
       <c r="J12" s="116"/>
       <c r="K12" s="117"/>
@@ -21422,13 +21427,13 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
+    <row r="13" spans="1:28" ht="12" customHeight="1">
       <c r="A13" s="194"/>
       <c r="B13" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>1</v>
@@ -21436,11 +21441,11 @@
       <c r="E13" s="221" t="n">
         <v>135</v>
       </c>
-      <c r="F13" s="198" t="n">
+      <c r="F13" s="198"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
       <c r="I13" s="115"/>
       <c r="J13" s="116"/>
       <c r="K13" s="117"/>
@@ -21471,13 +21476,13 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
+    <row r="14" spans="1:28" ht="12" customHeight="1">
       <c r="A14" s="375"/>
       <c r="B14" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D14" s="13" t="n">
         <v>1</v>
@@ -21485,11 +21490,11 @@
       <c r="E14" s="219" t="n">
         <v>135</v>
       </c>
-      <c r="F14" s="200" t="n">
+      <c r="F14" s="200"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
       <c r="I14" s="125"/>
       <c r="J14" s="126"/>
       <c r="K14" s="127"/>
@@ -21520,15 +21525,15 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
+    <row r="15" spans="1:28" ht="12" customHeight="1">
       <c r="A15" s="160" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C15" s="160" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D15" s="435" t="n">
         <v>1</v>
@@ -21536,12 +21541,12 @@
       <c r="E15" s="209" t="n">
         <v>185</v>
       </c>
-      <c r="F15" s="201" t="n">
-        <v>2</v>
-      </c>
+      <c r="F15" s="201"/>
       <c r="G15" s="128"/>
       <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
+      <c r="I15" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="J15" s="131"/>
       <c r="K15" s="132"/>
       <c r="L15" s="428"/>
@@ -21571,13 +21576,13 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
+    <row r="16" spans="1:28" ht="12" customHeight="1">
       <c r="A16" s="194"/>
       <c r="B16" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -21585,12 +21590,12 @@
       <c r="E16" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F16" s="198" t="n">
-        <v>2</v>
-      </c>
+      <c r="F16" s="198"/>
       <c r="G16" s="113"/>
       <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
+      <c r="I16" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="J16" s="116"/>
       <c r="K16" s="117"/>
       <c r="L16" s="424"/>
@@ -21620,13 +21625,13 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
+    <row r="17" spans="1:28" ht="12" customHeight="1">
       <c r="A17" s="194"/>
       <c r="B17" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D17" s="58" t="n">
         <v>1</v>
@@ -21634,12 +21639,12 @@
       <c r="E17" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F17" s="202" t="n">
-        <v>2</v>
-      </c>
+      <c r="F17" s="202"/>
       <c r="G17" s="133"/>
       <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
+      <c r="I17" s="135" t="n">
+        <v>2</v>
+      </c>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
       <c r="L17" s="426"/>
@@ -21669,13 +21674,13 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
+    <row r="18" spans="1:28" ht="12" customHeight="1">
       <c r="A18" s="194"/>
       <c r="B18" s="195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D18" s="56" t="n">
         <v>1</v>
@@ -21683,12 +21688,12 @@
       <c r="E18" s="221" t="n">
         <v>160</v>
       </c>
-      <c r="F18" s="201" t="n">
-        <v>2</v>
-      </c>
+      <c r="F18" s="201"/>
       <c r="G18" s="128"/>
       <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
+      <c r="I18" s="130" t="n">
+        <v>2</v>
+      </c>
       <c r="J18" s="131"/>
       <c r="K18" s="132"/>
       <c r="L18" s="428"/>
@@ -21718,13 +21723,13 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
+    <row r="19" spans="1:28" ht="12" customHeight="1">
       <c r="A19" s="375"/>
       <c r="B19" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D19" s="13" t="n">
         <v>1</v>
@@ -21732,12 +21737,12 @@
       <c r="E19" s="213" t="n">
         <v>160</v>
       </c>
-      <c r="F19" s="200" t="n">
-        <v>2</v>
-      </c>
+      <c r="F19" s="200"/>
       <c r="G19" s="123"/>
       <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
+      <c r="I19" s="125" t="n">
+        <v>2</v>
+      </c>
       <c r="J19" s="126"/>
       <c r="K19" s="127"/>
       <c r="L19" s="427"/>
@@ -21767,15 +21772,15 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
+    <row r="20" spans="1:28" ht="12" customHeight="1">
       <c r="A20" s="160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B20" s="160" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C20" s="160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D20" s="435" t="n">
         <v>1</v>
@@ -21818,13 +21823,13 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
+    <row r="21" spans="1:28" ht="12" customHeight="1">
       <c r="A21" s="194"/>
       <c r="B21" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -21867,13 +21872,13 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
+    <row r="22" spans="1:28" ht="12" customHeight="1">
       <c r="A22" s="194"/>
       <c r="B22" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>1</v>
@@ -21916,13 +21921,13 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
+    <row r="23" spans="1:28" ht="12" customHeight="1">
       <c r="A23" s="375"/>
       <c r="B23" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D23" s="82" t="n">
         <v>1</v>
@@ -21965,15 +21970,15 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
+    <row r="24" spans="1:28" ht="12" customHeight="1">
       <c r="A24" s="160" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D24" s="56" t="n">
         <v>1</v>
@@ -21981,15 +21986,15 @@
       <c r="E24" s="215" t="n">
         <v>260</v>
       </c>
-      <c r="F24" s="201" t="n">
-        <v>1</v>
-      </c>
+      <c r="F24" s="201"/>
       <c r="G24" s="128"/>
       <c r="H24" s="129"/>
       <c r="I24" s="130"/>
       <c r="J24" s="131"/>
       <c r="K24" s="132"/>
-      <c r="L24" s="428"/>
+      <c r="L24" s="428" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" s="423"/>
       <c r="N24" s="206">
         <f>I24+H24+G24+F24+J24+K24+L24</f>
@@ -22016,13 +22021,13 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
+    <row r="25" spans="1:28" ht="12" customHeight="1">
       <c r="A25" s="194"/>
       <c r="B25" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>1</v>
@@ -22030,15 +22035,15 @@
       <c r="E25" s="211" t="n">
         <v>260</v>
       </c>
-      <c r="F25" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F25" s="198"/>
       <c r="G25" s="113"/>
       <c r="H25" s="114"/>
       <c r="I25" s="115"/>
       <c r="J25" s="116"/>
       <c r="K25" s="117"/>
-      <c r="L25" s="424"/>
+      <c r="L25" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M25" s="424"/>
       <c r="N25" s="204">
         <f>I25+H25+G25+F25+J25+K25+L25</f>
@@ -22065,13 +22070,13 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
+    <row r="26" spans="1:28" ht="12" customHeight="1">
       <c r="A26" s="194"/>
       <c r="B26" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>1</v>
@@ -22079,15 +22084,15 @@
       <c r="E26" s="211" t="n">
         <v>240</v>
       </c>
-      <c r="F26" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F26" s="198"/>
       <c r="G26" s="113"/>
       <c r="H26" s="114"/>
       <c r="I26" s="115"/>
       <c r="J26" s="116"/>
       <c r="K26" s="117"/>
-      <c r="L26" s="424"/>
+      <c r="L26" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M26" s="424"/>
       <c r="N26" s="204">
         <f>I26+H26+G26+F26+J26+K26+L26</f>
@@ -22114,13 +22119,13 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
+    <row r="27" spans="1:28" ht="12" customHeight="1">
       <c r="A27" s="194"/>
       <c r="B27" s="73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" s="58" t="n">
         <v>1</v>
@@ -22128,15 +22133,15 @@
       <c r="E27" s="221" t="n">
         <v>240</v>
       </c>
-      <c r="F27" s="202" t="n">
-        <v>1</v>
-      </c>
+      <c r="F27" s="202"/>
       <c r="G27" s="133"/>
       <c r="H27" s="134"/>
       <c r="I27" s="135"/>
       <c r="J27" s="136"/>
       <c r="K27" s="137"/>
-      <c r="L27" s="426"/>
+      <c r="L27" s="426" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" s="424"/>
       <c r="N27" s="204">
         <f>I27+H27+G27+F27+J27+K27+L27</f>
@@ -22163,13 +22168,13 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
+    <row r="28" spans="1:28" ht="12" customHeight="1">
       <c r="A28" s="375"/>
       <c r="B28" s="75" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D28" s="82" t="n">
         <v>1</v>
@@ -22177,15 +22182,15 @@
       <c r="E28" s="219" t="n">
         <v>240</v>
       </c>
-      <c r="F28" s="377" t="n">
-        <v>1</v>
-      </c>
+      <c r="F28" s="377"/>
       <c r="G28" s="378"/>
       <c r="H28" s="379"/>
       <c r="I28" s="380"/>
       <c r="J28" s="381"/>
       <c r="K28" s="382"/>
-      <c r="L28" s="429"/>
+      <c r="L28" s="429" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" s="427"/>
       <c r="N28" s="205">
         <f>I28+H28+G28+F28+J28+K28+L28</f>
@@ -22214,13 +22219,13 @@
     </row>
     <row r="29" spans="1:263" s="84" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D29" s="56" t="n">
         <v>1</v>
@@ -22228,12 +22233,12 @@
       <c r="E29" s="215" t="n">
         <v>325</v>
       </c>
-      <c r="F29" s="201" t="n">
-        <v>1</v>
-      </c>
+      <c r="F29" s="201"/>
       <c r="G29" s="128"/>
       <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
+      <c r="I29" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J29" s="131"/>
       <c r="K29" s="132"/>
       <c r="L29" s="428"/>
@@ -22501,10 +22506,10 @@
     <row r="30" spans="1:263" s="84" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="194"/>
       <c r="B30" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D30" s="10" t="n">
         <v>1</v>
@@ -22512,12 +22517,12 @@
       <c r="E30" s="211" t="n">
         <v>195</v>
       </c>
-      <c r="F30" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F30" s="198"/>
       <c r="G30" s="113"/>
       <c r="H30" s="114"/>
-      <c r="I30" s="115"/>
+      <c r="I30" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J30" s="116"/>
       <c r="K30" s="117"/>
       <c r="L30" s="424"/>
@@ -22782,13 +22787,13 @@
       <c r="JB30" s="83"/>
       <c r="JC30" s="83"/>
     </row>
-    <row r="31" spans="1:30" ht="12" customHeight="1">
+    <row r="31" spans="1:16" ht="12" customHeight="1">
       <c r="A31" s="194"/>
       <c r="B31" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D31" s="56" t="n">
         <v>1</v>
@@ -22817,13 +22822,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="14" customHeight="1">
+    <row r="32" spans="1:16" ht="14" customHeight="1">
       <c r="A32" s="194"/>
       <c r="B32" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D32" s="10" t="n">
         <v>1</v>
@@ -22831,12 +22836,12 @@
       <c r="E32" s="211" t="n">
         <v>195</v>
       </c>
-      <c r="F32" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F32" s="198"/>
       <c r="G32" s="113"/>
       <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
+      <c r="I32" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J32" s="116"/>
       <c r="K32" s="117"/>
       <c r="L32" s="424"/>
@@ -22854,13 +22859,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="13" customHeight="1">
+    <row r="33" spans="1:16" ht="13" customHeight="1">
       <c r="A33" s="375"/>
       <c r="B33" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D33" s="13" t="n">
         <v>1</v>
@@ -22889,15 +22894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="13" customHeight="1">
+    <row r="34" spans="1:16" ht="13" customHeight="1">
       <c r="A34" s="160" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D34" s="56" t="n">
         <v>1</v>
@@ -22905,10 +22910,10 @@
       <c r="E34" s="215" t="n">
         <v>265</v>
       </c>
-      <c r="F34" s="201" t="n">
+      <c r="F34" s="201"/>
+      <c r="G34" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="128"/>
       <c r="H34" s="129"/>
       <c r="I34" s="130"/>
       <c r="J34" s="131"/>
@@ -22928,13 +22933,13 @@
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="13" customHeight="1">
+    <row r="35" spans="1:16" ht="13" customHeight="1">
       <c r="A35" s="194"/>
       <c r="B35" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -22942,10 +22947,10 @@
       <c r="E35" s="211" t="n">
         <v>265</v>
       </c>
-      <c r="F35" s="198" t="n">
+      <c r="F35" s="198"/>
+      <c r="G35" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="113"/>
       <c r="H35" s="114"/>
       <c r="I35" s="115"/>
       <c r="J35" s="116"/>
@@ -22965,13 +22970,13 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="13" customHeight="1">
+    <row r="36" spans="1:16" ht="13" customHeight="1">
       <c r="A36" s="194"/>
       <c r="B36" s="52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D36" s="56" t="n">
         <v>1</v>
@@ -22979,10 +22984,10 @@
       <c r="E36" s="215" t="n">
         <v>260</v>
       </c>
-      <c r="F36" s="201" t="n">
+      <c r="F36" s="201"/>
+      <c r="G36" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="128"/>
       <c r="H36" s="129"/>
       <c r="I36" s="130"/>
       <c r="J36" s="131"/>
@@ -23002,13 +23007,13 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="13" customHeight="1">
+    <row r="37" spans="1:16" ht="13" customHeight="1">
       <c r="A37" s="194"/>
       <c r="B37" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>1</v>
@@ -23016,11 +23021,9 @@
       <c r="E37" s="211" t="n">
         <v>260</v>
       </c>
-      <c r="F37" s="198" t="n">
+      <c r="F37" s="198"/>
+      <c r="G37" s="113" t="n">
         <v>2</v>
-      </c>
-      <c r="G37" s="113" t="s">
-        <v>369</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="115"/>
@@ -23028,23 +23031,23 @@
       <c r="K37" s="117"/>
       <c r="L37" s="424"/>
       <c r="M37" s="424"/>
-      <c r="N37" s="204" t="e">
+      <c r="N37" s="204">
         <f>I37+H37+G37+F37+J37+K37+L37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O37" s="439" t="e">
+        <v>2</v>
+      </c>
+      <c r="O37" s="439">
         <f>N37*D37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P37" s="374" t="e">
+        <v>2</v>
+      </c>
+      <c r="P37" s="374">
         <f>N37*E37</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="13" customHeight="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="13" customHeight="1">
       <c r="A38" s="194"/>
       <c r="B38" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>370</v>
@@ -23055,10 +23058,10 @@
       <c r="E38" s="215" t="n">
         <v>195</v>
       </c>
-      <c r="F38" s="201" t="n">
+      <c r="F38" s="201"/>
+      <c r="G38" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="128"/>
       <c r="H38" s="129"/>
       <c r="I38" s="130"/>
       <c r="J38" s="131"/>
@@ -23078,10 +23081,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="13" customHeight="1">
+    <row r="39" spans="1:16" ht="13" customHeight="1">
       <c r="A39" s="375"/>
       <c r="B39" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>371</v>
@@ -23092,10 +23095,10 @@
       <c r="E39" s="213" t="n">
         <v>195</v>
       </c>
-      <c r="F39" s="198" t="n">
+      <c r="F39" s="198"/>
+      <c r="G39" s="123" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="123"/>
       <c r="H39" s="124"/>
       <c r="I39" s="125"/>
       <c r="J39" s="126"/>
@@ -23120,7 +23123,7 @@
         <v>372</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>373</v>
@@ -23131,12 +23134,12 @@
       <c r="E40" s="215" t="n">
         <v>260</v>
       </c>
-      <c r="F40" s="201" t="n">
-        <v>2</v>
-      </c>
+      <c r="F40" s="201"/>
       <c r="G40" s="128"/>
       <c r="H40" s="129"/>
-      <c r="I40" s="130"/>
+      <c r="I40" s="130" t="n">
+        <v>2</v>
+      </c>
       <c r="J40" s="131"/>
       <c r="K40" s="132"/>
       <c r="L40" s="428"/>
@@ -23160,7 +23163,7 @@
     <row r="41" spans="1:265" ht="13" customHeight="1">
       <c r="A41" s="194"/>
       <c r="B41" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>374</v>
@@ -23171,12 +23174,12 @@
       <c r="E41" s="211" t="n">
         <v>260</v>
       </c>
-      <c r="F41" s="198" t="n">
-        <v>2</v>
-      </c>
+      <c r="F41" s="198"/>
       <c r="G41" s="113"/>
       <c r="H41" s="114"/>
-      <c r="I41" s="115"/>
+      <c r="I41" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="J41" s="116"/>
       <c r="K41" s="117"/>
       <c r="L41" s="424"/>
@@ -23200,7 +23203,7 @@
     <row r="42" spans="1:265" ht="13" customHeight="1">
       <c r="A42" s="194"/>
       <c r="B42" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>375</v>
@@ -23211,12 +23214,12 @@
       <c r="E42" s="211" t="n">
         <v>240</v>
       </c>
-      <c r="F42" s="198" t="n">
-        <v>2</v>
-      </c>
+      <c r="F42" s="198"/>
       <c r="G42" s="113"/>
       <c r="H42" s="114"/>
-      <c r="I42" s="115"/>
+      <c r="I42" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="J42" s="116"/>
       <c r="K42" s="117"/>
       <c r="L42" s="424"/>
@@ -23240,7 +23243,7 @@
     <row r="43" spans="1:265" ht="13" customHeight="1">
       <c r="A43" s="194"/>
       <c r="B43" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>376</v>
@@ -23251,12 +23254,12 @@
       <c r="E43" s="211" t="n">
         <v>240</v>
       </c>
-      <c r="F43" s="198" t="n">
-        <v>2</v>
-      </c>
+      <c r="F43" s="198"/>
       <c r="G43" s="113"/>
       <c r="H43" s="114"/>
-      <c r="I43" s="115"/>
+      <c r="I43" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="J43" s="116"/>
       <c r="K43" s="117"/>
       <c r="L43" s="424"/>
@@ -23280,7 +23283,7 @@
     <row r="44" spans="1:265" ht="13" customHeight="1">
       <c r="A44" s="194"/>
       <c r="B44" s="195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C44" s="195" t="s">
         <v>377</v>
@@ -23291,12 +23294,12 @@
       <c r="E44" s="222" t="n">
         <v>225</v>
       </c>
-      <c r="F44" s="199" t="n">
-        <v>2</v>
-      </c>
+      <c r="F44" s="199"/>
       <c r="G44" s="118"/>
       <c r="H44" s="119"/>
-      <c r="I44" s="120"/>
+      <c r="I44" s="120" t="n">
+        <v>2</v>
+      </c>
       <c r="J44" s="121"/>
       <c r="K44" s="122"/>
       <c r="L44" s="425"/>
@@ -23331,7 +23334,7 @@
       <c r="O45" s="443"/>
       <c r="P45" s="71"/>
     </row>
-    <row r="46" spans="2:16" ht="13" customHeight="1">
+    <row r="46" spans="5:16" ht="13" customHeight="1">
       <c r="E46" s="85"/>
       <c r="F46" s="385"/>
       <c r="G46" s="351"/>
@@ -23370,7 +23373,7 @@
         <v>379</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>380</v>
@@ -23407,7 +23410,7 @@
     <row r="49" spans="1:16" ht="13" customHeight="1">
       <c r="A49" s="194"/>
       <c r="B49" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>381</v>
@@ -23444,7 +23447,7 @@
     <row r="50" spans="1:16" ht="13" customHeight="1">
       <c r="A50" s="194"/>
       <c r="B50" s="52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>382</v>
@@ -23481,7 +23484,7 @@
     <row r="51" spans="1:16" ht="13" customHeight="1">
       <c r="A51" s="194"/>
       <c r="B51" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>383</v>
@@ -23518,7 +23521,7 @@
     <row r="52" spans="1:16" ht="13" customHeight="1">
       <c r="A52" s="194"/>
       <c r="B52" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>384</v>
@@ -23553,7 +23556,7 @@
     <row r="53" spans="1:16" ht="13" customHeight="1">
       <c r="A53" s="194"/>
       <c r="B53" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>385</v>
@@ -23588,7 +23591,7 @@
     <row r="54" spans="1:16" ht="13" customHeight="1">
       <c r="A54" s="194"/>
       <c r="B54" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C54" s="52" t="s">
         <v>386</v>
@@ -23623,7 +23626,7 @@
     <row r="55" spans="1:16" ht="13" customHeight="1">
       <c r="A55" s="194"/>
       <c r="B55" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>387</v>
@@ -23658,7 +23661,7 @@
     <row r="56" spans="1:16" ht="13" customHeight="1">
       <c r="A56" s="194"/>
       <c r="B56" s="195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C56" s="195" t="s">
         <v>388</v>
@@ -23742,7 +23745,7 @@
       <c r="K59" s="353"/>
       <c r="L59" s="422"/>
       <c r="M59" s="431" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N59" s="389"/>
       <c r="O59" s="444"/>
@@ -23753,7 +23756,7 @@
         <v>390</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>391</v>
@@ -23860,9 +23863,9 @@
       <c r="M64" s="391"/>
       <c r="N64" s="392"/>
       <c r="O64" s="392"/>
-      <c r="P64" s="376" t="e">
+      <c r="P64" s="376">
         <f>SUM(P7:P62)</f>
-        <v>#VALUE!</v>
+        <v>13510</v>
       </c>
     </row>
     <row r="65" spans="12:16" ht="13" customHeight="1">
@@ -23872,18 +23875,18 @@
       <c r="M65" s="445"/>
       <c r="N65" s="446"/>
       <c r="O65" s="446"/>
-      <c r="P65" s="157" t="e">
+      <c r="P65" s="157">
         <f>SUM(N7:N62)</f>
-        <v>#VALUE!</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="12:16" ht="13" customHeight="1">
       <c r="L66" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="P66" s="447" t="e">
+      <c r="P66" s="447">
         <f>SUM(O7:O62)</f>
-        <v>#VALUE!</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -23893,7 +23896,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715363710" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23903,15 +23906,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715363710" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23924,7 +23927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="normal" zoomScale="155" workbookViewId="0">
+    <sheetView showGridLines="0" view="normal" topLeftCell="A17" zoomScale="155" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -23933,13 +23936,13 @@
     <col min="1" max="1" width="7.120301" customWidth="1" style="258"/>
     <col min="2" max="2" width="13.120301" customWidth="1" style="258"/>
     <col min="3" max="3" width="19.000000" customWidth="1" style="258"/>
-    <col min="4" max="4" width="8.616541" customWidth="1" style="258"/>
-    <col min="5" max="5" width="6.360902" customWidth="1" style="258"/>
+    <col min="4" max="4" width="8.609023" customWidth="1" style="258"/>
+    <col min="5" max="5" width="6.345865" customWidth="1" style="258"/>
     <col min="6" max="7" width="8.120301" customWidth="1" style="258"/>
     <col min="8" max="8" width="5.000000" customWidth="1" style="258"/>
-    <col min="9" max="9" width="8.360902" customWidth="1" style="258"/>
+    <col min="9" max="9" width="8.345865" customWidth="1" style="258"/>
     <col min="10" max="10" width="12.000000" customWidth="1" style="258"/>
-    <col min="11" max="16384" width="10.616541" customWidth="1" style="258"/>
+    <col min="11" max="16384" width="10.609023" customWidth="1" style="258"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -23972,7 +23975,7 @@
     </row>
     <row r="3" spans="1:10" ht="44" customHeight="1">
       <c r="A3" s="407" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -23995,7 +23998,7 @@
       <c r="I4" s="268"/>
       <c r="J4" s="268"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="286" t="s">
         <v>400</v>
       </c>
@@ -24010,7 +24013,7 @@
       </c>
       <c r="E5" s="315"/>
       <c r="F5" s="310" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G5" s="272" t="s">
         <v>10</v>
@@ -24027,7 +24030,7 @@
         <v>403</v>
       </c>
       <c r="B6" s="292" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C6" s="293" t="s">
         <v>404</v>
@@ -24053,7 +24056,7 @@
         <v>405</v>
       </c>
       <c r="B7" s="393" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C7" s="297" t="s">
         <v>406</v>
@@ -24079,7 +24082,7 @@
         <v>407</v>
       </c>
       <c r="B8" s="296" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C8" s="297" t="s">
         <v>408</v>
@@ -24141,7 +24144,7 @@
     <row r="12" spans="1:10">
       <c r="A12" s="291"/>
       <c r="B12" s="292" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C12" s="293" t="s">
         <v>410</v>
@@ -24165,7 +24168,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="295"/>
       <c r="B13" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C13" s="297" t="s">
         <v>411</v>
@@ -24215,7 +24218,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="291"/>
       <c r="B16" s="292" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C16" s="302" t="s">
         <v>413</v>
@@ -24239,7 +24242,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="295"/>
       <c r="B17" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C17" s="297" t="s">
         <v>414</v>
@@ -24263,7 +24266,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="295"/>
       <c r="B18" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C18" s="297" t="s">
         <v>415</v>
@@ -24287,7 +24290,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="295"/>
       <c r="B19" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C19" s="297" t="s">
         <v>416</v>
@@ -24326,7 +24329,7 @@
       </c>
       <c r="B21" s="300"/>
       <c r="C21" s="300" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D21" s="413"/>
       <c r="E21" s="287"/>
@@ -24339,10 +24342,10 @@
     <row r="22" spans="1:10">
       <c r="A22" s="291"/>
       <c r="B22" s="275" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C22" s="293" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D22" s="410" t="n">
         <v>115</v>
@@ -24359,16 +24362,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="323" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="281"/>
       <c r="B23" s="306" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C23" s="297" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D23" s="411" t="n">
         <v>115</v>
@@ -24389,10 +24392,10 @@
     <row r="24" spans="1:10">
       <c r="A24" s="285"/>
       <c r="B24" s="306" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C24" s="297" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D24" s="411" t="n">
         <v>115</v>
@@ -24413,10 +24416,10 @@
     <row r="25" spans="1:10">
       <c r="A25" s="285"/>
       <c r="B25" s="306" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C25" s="297" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D25" s="411" t="n">
         <v>115</v>
@@ -24437,10 +24440,10 @@
     <row r="26" spans="1:10">
       <c r="A26" s="285"/>
       <c r="B26" s="306" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C26" s="297" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D26" s="411" t="n">
         <v>115</v>
@@ -24472,7 +24475,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="269" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B28" s="300"/>
       <c r="C28" s="300"/>
@@ -24487,10 +24490,10 @@
     <row r="29" spans="1:10">
       <c r="A29" s="295"/>
       <c r="B29" s="281" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C29" s="397" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D29" s="412" t="n">
         <v>350</v>
@@ -24522,7 +24525,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="269" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B31" s="300"/>
       <c r="C31" s="300"/>
@@ -24537,10 +24540,10 @@
     <row r="32" spans="1:10">
       <c r="A32" s="285"/>
       <c r="B32" s="306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C32" s="397" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D32" s="411" t="n">
         <v>40</v>
@@ -24571,13 +24574,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="269" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B34" s="300"/>
       <c r="C34" s="300"/>
       <c r="D34" s="413"/>
       <c r="E34" s="315" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F34" s="288"/>
       <c r="G34" s="288"/>
@@ -24588,10 +24591,10 @@
     <row r="35" spans="1:10">
       <c r="A35" s="281"/>
       <c r="B35" s="306" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C35" s="325" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D35" s="411" t="n">
         <v>31</v>
@@ -24612,10 +24615,10 @@
     <row r="36" spans="1:10">
       <c r="A36" s="285"/>
       <c r="B36" s="306" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C36" s="325" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D36" s="411" t="n">
         <v>21</v>
@@ -24636,10 +24639,10 @@
     <row r="37" spans="1:10">
       <c r="A37" s="285"/>
       <c r="B37" s="306" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C37" s="325" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D37" s="411" t="n">
         <v>11</v>
@@ -24660,10 +24663,10 @@
     <row r="38" spans="1:10">
       <c r="A38" s="285"/>
       <c r="B38" s="306" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C38" s="325" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D38" s="411" t="n">
         <v>12</v>
@@ -24684,10 +24687,10 @@
     <row r="39" spans="1:10">
       <c r="A39" s="285"/>
       <c r="B39" s="306" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C39" s="325" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D39" s="411" t="n">
         <v>13</v>
@@ -24708,10 +24711,10 @@
     <row r="40" spans="1:10">
       <c r="A40" s="285"/>
       <c r="B40" s="306" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C40" s="325" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D40" s="411" t="n">
         <v>14</v>
@@ -24732,10 +24735,10 @@
     <row r="41" spans="1:10">
       <c r="A41" s="281"/>
       <c r="B41" s="306" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C41" s="325" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D41" s="411" t="n">
         <v>15</v>
@@ -24756,10 +24759,10 @@
     <row r="42" spans="1:10">
       <c r="A42" s="295"/>
       <c r="B42" s="306" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C42" s="325" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D42" s="411" t="n">
         <v>3</v>
@@ -24779,10 +24782,10 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="306" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C43" s="325" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D43" s="411" t="n">
         <v>2</v>
@@ -24802,7 +24805,7 @@
     </row>
     <row r="45" spans="7:9">
       <c r="G45" s="308" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H45" s="309"/>
       <c r="I45" s="290">
@@ -24820,7 +24823,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715363710" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24830,15 +24833,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715363710" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24862,14 +24865,14 @@
     <col min="3" max="4" width="12.240602" customWidth="1" style="258"/>
     <col min="5" max="5" width="8.000000" customWidth="1" style="258"/>
     <col min="6" max="6" width="10.496241" customWidth="1" style="258"/>
-    <col min="7" max="9" width="10.616541" customWidth="1" style="258"/>
+    <col min="7" max="9" width="10.609023" customWidth="1" style="258"/>
     <col min="10" max="10" width="12.000000" customWidth="1" style="258"/>
-    <col min="11" max="16384" width="10.616541" customWidth="1" style="258"/>
+    <col min="11" max="16384" width="10.609023" customWidth="1" style="258"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="367" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -24901,7 +24904,7 @@
       <c r="F2" s="259"/>
       <c r="G2" s="259"/>
       <c r="H2" s="396" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I2" s="396"/>
       <c r="J2" s="260"/>
@@ -24919,7 +24922,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B3" s="264"/>
       <c r="C3" s="264"/>
@@ -24965,13 +24968,13 @@
       <c r="T4" s="268"/>
       <c r="U4" s="268"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:9">
       <c r="A5" s="269" t="str">
         <f>UTURN!A11</f>
         <v>UTURN Ball</v>
       </c>
       <c r="B5" s="270" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="270" t="s">
         <v>4</v>
@@ -24980,13 +24983,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="315" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F5" s="310" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G5" s="272" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H5" s="417" t="s">
         <v>402</v>
@@ -24995,10 +24998,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:11">
       <c r="A6" s="291"/>
       <c r="B6" s="292" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C6" s="293" t="s">
         <v>410</v>
@@ -25027,10 +25030,10 @@
       <c r="J6" s="323"/>
       <c r="K6" s="319"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:11">
       <c r="A7" s="295"/>
       <c r="B7" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C7" s="297" t="s">
         <v>411</v>
@@ -25108,10 +25111,10 @@
       <c r="T9" s="303"/>
       <c r="U9" s="303"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:11">
       <c r="A10" s="291"/>
       <c r="B10" s="292" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C10" s="302" t="s">
         <v>413</v>
@@ -25140,10 +25143,10 @@
       <c r="J10" s="323"/>
       <c r="K10" s="319"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:11">
       <c r="A11" s="295"/>
       <c r="B11" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C11" s="297" t="s">
         <v>414</v>
@@ -25172,10 +25175,10 @@
       <c r="J11" s="323"/>
       <c r="K11" s="319"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:10">
       <c r="A12" s="295"/>
       <c r="B12" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C12" s="297" t="s">
         <v>415</v>
@@ -25203,10 +25206,10 @@
       </c>
       <c r="J12" s="323"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:10">
       <c r="A13" s="295"/>
       <c r="B13" s="296" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C13" s="297" t="s">
         <v>416</v>
@@ -25234,7 +25237,7 @@
       </c>
       <c r="J13" s="323"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:10">
       <c r="A14" s="295"/>
       <c r="B14" s="281"/>
       <c r="C14" s="281"/>
@@ -25253,7 +25256,7 @@
       </c>
       <c r="B15" s="300"/>
       <c r="C15" s="300" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="D15" s="287"/>
       <c r="E15" s="288"/>
@@ -25274,13 +25277,13 @@
       <c r="T15" s="303"/>
       <c r="U15" s="303"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:10">
       <c r="A16" s="291"/>
       <c r="B16" s="275" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C16" s="293" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D16" s="320">
         <f>UTURN!D22</f>
@@ -25305,13 +25308,13 @@
       </c>
       <c r="J16" s="323"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:10">
       <c r="A17" s="281"/>
       <c r="B17" s="306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C17" s="297" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D17" s="321">
         <f>UTURN!D23</f>
@@ -25336,13 +25339,13 @@
       </c>
       <c r="J17" s="323"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:10">
       <c r="A18" s="285"/>
       <c r="B18" s="306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C18" s="297" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D18" s="321">
         <f>UTURN!D24</f>
@@ -25367,13 +25370,13 @@
       </c>
       <c r="J18" s="323"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:10">
       <c r="A19" s="285"/>
       <c r="B19" s="306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C19" s="297" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D19" s="321">
         <f>UTURN!D25</f>
@@ -25398,13 +25401,13 @@
       </c>
       <c r="J19" s="323"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:10">
       <c r="A20" s="285"/>
       <c r="B20" s="306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C20" s="297" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D20" s="321">
         <f>UTURN!D26</f>
@@ -25429,7 +25432,7 @@
       </c>
       <c r="J20" s="323"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:10">
       <c r="A21" s="285"/>
       <c r="B21" s="285"/>
       <c r="C21" s="285"/>
@@ -25441,7 +25444,7 @@
       <c r="I21" s="280"/>
       <c r="J21" s="323"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:10">
       <c r="A22" s="269" t="str">
         <f>UTURN!A28</f>
         <v>UTURN Middle Part </v>
@@ -25456,13 +25459,13 @@
       <c r="I22" s="290"/>
       <c r="J22" s="323"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:10">
       <c r="A23" s="295"/>
       <c r="B23" s="278" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C23" s="302" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D23" s="320">
         <f>UTURN!D29</f>
@@ -25487,7 +25490,7 @@
       </c>
       <c r="J23" s="323"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:10">
       <c r="A24" s="285"/>
       <c r="B24" s="285"/>
       <c r="C24" s="285"/>
@@ -25499,7 +25502,7 @@
       <c r="I24" s="280"/>
       <c r="J24" s="323"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:10">
       <c r="A25" s="269" t="str">
         <f>UTURN!A31</f>
         <v>UTURN Ring</v>
@@ -25514,13 +25517,13 @@
       <c r="I25" s="290"/>
       <c r="J25" s="323"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:10">
       <c r="A26" s="295"/>
       <c r="B26" s="278" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C26" s="302" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D26" s="320">
         <f>UTURN!D32</f>
@@ -25567,7 +25570,7 @@
       <c r="T27" s="303"/>
       <c r="U27" s="303"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:10">
       <c r="A28" s="269" t="str">
         <f>UTURN!A34</f>
         <v>UTURN Accessories</v>
@@ -25582,13 +25585,13 @@
       <c r="I28" s="290"/>
       <c r="J28" s="323"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:10">
       <c r="A29" s="281"/>
       <c r="B29" s="306" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C29" s="325" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D29" s="321">
         <f>UTURN!D35</f>
@@ -25610,13 +25613,13 @@
       </c>
       <c r="J29" s="323"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:10">
       <c r="A30" s="285"/>
       <c r="B30" s="306" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C30" s="325" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D30" s="321">
         <f>UTURN!D36</f>
@@ -25638,13 +25641,13 @@
       </c>
       <c r="J30" s="323"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:10">
       <c r="A31" s="285"/>
       <c r="B31" s="306" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C31" s="325" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D31" s="321">
         <f>UTURN!D37</f>
@@ -25666,13 +25669,13 @@
       </c>
       <c r="J31" s="323"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:10">
       <c r="A32" s="285"/>
       <c r="B32" s="306" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C32" s="325" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D32" s="321">
         <f>UTURN!D38</f>
@@ -25694,13 +25697,13 @@
       </c>
       <c r="J32" s="323"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:10">
       <c r="A33" s="285"/>
       <c r="B33" s="306" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C33" s="325" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D33" s="321">
         <f>UTURN!D39</f>
@@ -25722,13 +25725,13 @@
       </c>
       <c r="J33" s="323"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:10">
       <c r="A34" s="285"/>
       <c r="B34" s="306" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C34" s="325" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D34" s="321">
         <f>UTURN!D40</f>
@@ -25750,13 +25753,13 @@
       </c>
       <c r="J34" s="323"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:10">
       <c r="A35" s="281"/>
       <c r="B35" s="306" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C35" s="325" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D35" s="321">
         <f>UTURN!D41</f>
@@ -25778,13 +25781,13 @@
       </c>
       <c r="J35" s="323"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:9">
       <c r="A36" s="295"/>
       <c r="B36" s="306" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C36" s="325" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D36" s="321">
         <f>UTURN!D42</f>
@@ -25807,10 +25810,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="306" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C37" s="325" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D37" s="321">
         <f>UTURN!D43</f>
@@ -25833,7 +25836,7 @@
     </row>
     <row r="39" spans="7:9">
       <c r="G39" s="308" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H39" s="309"/>
       <c r="I39" s="290">
@@ -25843,7 +25846,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="396" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H40" s="395">
         <f>SUM(H6:H37)</f>
@@ -25860,7 +25863,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715363710" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -25870,15 +25873,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715363710" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -26007,24 +26010,24 @@
       <c r="V4" s="172"/>
       <c r="W4" s="172"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:18">
       <c r="A5" s="93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>402</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F5" s="187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G5" s="190"/>
       <c r="H5" s="190"/>
@@ -26038,14 +26041,13 @@
       <c r="P5" s="168"/>
       <c r="Q5" s="168"/>
       <c r="R5" s="168"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" s="245" t="n">
         <v>40</v>
@@ -26070,14 +26072,13 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="12" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C7" s="246" t="n">
         <v>40</v>
@@ -26102,9 +26103,8 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -26123,9 +26123,8 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="W8"/>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -26145,7 +26144,6 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="W9"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="186"/>
@@ -28197,7 +28195,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715363710" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -28207,15 +28205,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715363710" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715363710" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/OrderForms/flathold.xlsx
+++ b/OrderForms/flathold.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="jacob"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="33600" windowHeight="20535" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="33600" windowHeight="20535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Holds" sheetId="1" r:id="rId4"/>
@@ -39,17 +39,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1715850695" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1715850695" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1715850695" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1715850695"/>
+      <pm:revision xmlns:pm="smNativeData" day="1716123308" val="1068" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1716123308" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1716123308" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1716123308"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="465">
   <si>
     <t>brand:Flathold;start:4;End:249;Range:A;Reference:C;Colors:F-&gt;M;productName:Holds</t>
   </si>
@@ -75,7 +75,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1715850695">
+            <pm:charSpec xmlns:pm="smNativeData" id="1716123308">
               <pm:latin face="Helvetica" sz="200" weight="normal" i="0"/>
               <pm:cs sz="360"/>
               <pm:ea sz="360"/>
@@ -976,9 +976,6 @@
   </si>
   <si>
     <t>Set/Colors</t>
-  </si>
-  <si>
-    <t>z</t>
   </si>
   <si>
     <t>Holds Price</t>
@@ -1042,7 +1039,7 @@
         <i val="0"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1715850695">
+            <pm:charSpec xmlns:pm="smNativeData" id="1716123308">
               <pm:latin face="Helvetica" sz="200" weight="normal" i="0"/>
               <pm:cs sz="360"/>
               <pm:ea sz="360"/>
@@ -1541,7 +1538,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1556,7 +1553,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1570,7 +1567,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1585,7 +1582,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1599,7 +1596,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1614,7 +1611,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="360" lang="default"/>
             <pm:cs face="Basic Roman" sz="360" lang="default"/>
             <pm:ea face="Basic Roman" sz="360" lang="default"/>
@@ -1629,7 +1626,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1644,7 +1641,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="DD0806" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" fgClr="DD0806" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1659,7 +1656,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1673,7 +1670,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica Neue" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1688,7 +1685,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Helvetica Neue" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1704,7 +1701,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="140" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="140" lang="default" weight="bold"/>
@@ -1719,7 +1716,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Verdana" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1734,7 +1731,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1750,7 +1747,7 @@
       <sz val="7"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="140" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="140" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="140" lang="default" weight="bold"/>
@@ -1765,7 +1762,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="single" kern="1">
             <pm:latin face="Helvetica Neue" sz="140" lang="default"/>
             <pm:cs face="Basic Roman" sz="140" lang="default"/>
             <pm:ea face="Basic Roman" sz="140" lang="default"/>
@@ -1780,7 +1777,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1715850695" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1716123308" ulstyle="none" kern="1">
             <pm:latin face="Helvetica" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="360" lang="default"/>
             <pm:ea face="Basic Roman" sz="360" lang="default"/>
@@ -1802,7 +1799,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1813,7 +1810,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1824,7 +1821,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1835,7 +1832,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1855,7 +1852,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1866,7 +1863,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1877,7 +1874,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1891,7 +1888,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1902,7 +1899,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1913,7 +1910,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1924,7 +1921,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1935,7 +1932,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1946,7 +1943,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1957,7 +1954,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1968,7 +1965,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1985,7 +1982,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1996,7 +1993,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2007,7 +2004,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2021,7 +2018,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2032,7 +2029,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2043,7 +2040,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2054,7 +2051,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2065,7 +2062,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2076,7 +2073,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2087,7 +2084,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2098,7 +2095,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2109,7 +2106,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2120,7 +2117,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2131,7 +2128,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2142,7 +2139,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2153,7 +2150,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2164,7 +2161,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2175,7 +2172,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2186,7 +2183,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2197,7 +2194,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2208,7 +2205,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2219,7 +2216,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2230,7 +2227,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2241,7 +2238,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2252,7 +2249,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2263,7 +2260,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2274,7 +2271,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2285,7 +2282,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2296,7 +2293,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2307,7 +2304,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2318,7 +2315,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2329,7 +2326,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2340,7 +2337,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2351,7 +2348,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2362,7 +2359,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2373,7 +2370,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2384,7 +2381,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2395,7 +2392,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2406,7 +2403,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2417,7 +2414,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2428,7 +2425,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2439,7 +2436,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2450,7 +2447,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2461,7 +2458,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2472,7 +2469,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2483,7 +2480,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2494,7 +2491,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2505,7 +2502,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2516,7 +2513,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FEBDB4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FEBDB4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2527,7 +2524,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2538,7 +2535,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2549,7 +2546,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2560,7 +2557,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2571,7 +2568,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2582,7 +2579,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2596,7 +2593,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2607,7 +2604,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2618,7 +2615,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2629,7 +2626,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2640,7 +2637,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2651,7 +2648,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2662,7 +2659,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2673,7 +2670,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2684,7 +2681,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2695,7 +2692,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2706,7 +2703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2717,7 +2714,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2728,7 +2725,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2739,7 +2736,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2750,7 +2747,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2761,7 +2758,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2772,7 +2769,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2783,7 +2780,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2794,7 +2791,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2805,7 +2802,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2816,7 +2813,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2827,7 +2824,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2838,7 +2835,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2849,7 +2846,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2860,7 +2857,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2871,7 +2868,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2882,7 +2879,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2893,7 +2890,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F7F3D0" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2904,7 +2901,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2915,7 +2912,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2926,7 +2923,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2937,7 +2934,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2948,7 +2945,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2959,7 +2956,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2970,7 +2967,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2981,7 +2978,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2992,7 +2989,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3003,7 +3000,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3014,7 +3011,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3025,7 +3022,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3036,7 +3033,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3047,7 +3044,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3058,7 +3055,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3069,7 +3066,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3080,7 +3077,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3091,7 +3088,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3102,7 +3099,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3113,7 +3110,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3124,7 +3121,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3135,7 +3132,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3146,7 +3143,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3157,7 +3154,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3168,7 +3165,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3188,7 +3185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3199,7 +3196,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="003366FF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="003366FF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3210,7 +3207,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3221,7 +3218,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3232,7 +3229,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3243,7 +3240,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3254,7 +3251,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3265,7 +3262,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3276,7 +3273,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3287,7 +3284,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00000000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3298,7 +3295,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B8CCE4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3309,7 +3306,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3323,7 +3320,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3334,7 +3331,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00C00000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3345,7 +3342,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="001B2FF5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3356,7 +3353,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F74A07" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3367,7 +3364,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="0000FF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3378,7 +3375,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FF0DBD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3389,7 +3386,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00A73CC4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3400,7 +3397,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3411,7 +3408,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3422,7 +3419,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3433,7 +3430,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3444,7 +3441,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3455,7 +3452,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3466,7 +3463,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F9F5D8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3477,7 +3474,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCAC1" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3488,7 +3485,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00DEEAF6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3499,7 +3496,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3510,7 +3507,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FBE4D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3521,7 +3518,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00D0EFCD" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3532,7 +3529,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FCE0FA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3543,7 +3540,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFCDFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3554,7 +3551,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3565,7 +3562,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FF4BDF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FF4BDF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3576,7 +3573,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="0012D938" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="0012D938" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3587,7 +3584,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3598,7 +3595,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F2F5D4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3609,7 +3606,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFC2C3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3620,7 +3617,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00B9CAEA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3631,7 +3628,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00EABAE3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3642,7 +3639,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BAF2B2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3653,7 +3650,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3664,7 +3661,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3675,7 +3672,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3686,7 +3683,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3706,7 +3703,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3717,7 +3714,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3728,7 +3725,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3739,7 +3736,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3750,7 +3747,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3761,7 +3758,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3772,7 +3769,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00FAFAFA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3783,7 +3780,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1715850695" type="1" fgLvl="100" fgClr="00F8F8F8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1716123308" type="1" fgLvl="100" fgClr="00F8F8F8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3805,7 +3802,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -3824,7 +3821,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3846,7 +3843,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3868,7 +3865,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3890,7 +3887,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3912,7 +3909,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3934,7 +3931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3956,7 +3953,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -3978,7 +3975,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -3997,7 +3994,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -4020,7 +4017,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -4044,7 +4041,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4065,7 +4062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4086,7 +4083,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4107,7 +4104,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4126,7 +4123,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4145,7 +4142,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4164,7 +4161,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4183,7 +4180,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4202,7 +4199,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -4221,7 +4218,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4242,7 +4239,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4263,7 +4260,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4284,7 +4281,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4305,7 +4302,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4327,7 +4324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4348,7 +4345,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
         </ext>
@@ -4369,7 +4366,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4391,7 +4388,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -4413,7 +4410,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4435,7 +4432,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4457,7 +4454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4479,7 +4476,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4501,7 +4498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4523,7 +4520,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4545,7 +4542,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4566,7 +4563,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4587,7 +4584,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4608,7 +4605,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4629,7 +4626,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4650,7 +4647,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4671,7 +4668,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4693,7 +4690,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4715,7 +4712,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4737,7 +4734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4759,7 +4756,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4781,7 +4778,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4803,7 +4800,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4825,7 +4822,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4847,7 +4844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4869,7 +4866,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -4891,7 +4888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4912,7 +4909,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4933,7 +4930,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4954,7 +4951,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4975,7 +4972,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -4996,7 +4993,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5018,7 +5015,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5040,7 +5037,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5062,7 +5059,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5084,7 +5081,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5106,7 +5103,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -5125,7 +5122,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -5144,7 +5141,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -5163,7 +5160,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -5182,7 +5179,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -5201,7 +5198,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5222,7 +5219,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5243,7 +5240,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5264,7 +5261,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5285,7 +5282,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5306,7 +5303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5328,7 +5325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5350,7 +5347,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5372,7 +5369,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5394,7 +5391,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5416,7 +5413,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5438,7 +5435,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5460,7 +5457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5481,7 +5478,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5502,7 +5499,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -5524,7 +5521,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -5547,7 +5544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -5569,7 +5566,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5590,7 +5587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5611,7 +5608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5632,7 +5629,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5653,7 +5650,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5674,7 +5671,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5695,7 +5692,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5718,7 +5715,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5741,7 +5738,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5763,7 +5760,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5786,7 +5783,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5807,7 +5804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5829,7 +5826,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5852,7 +5849,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5875,7 +5872,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5898,7 +5895,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5920,7 +5917,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -5941,7 +5938,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -5963,7 +5960,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -5986,7 +5983,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6009,7 +6006,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6032,7 +6029,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6055,7 +6052,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6078,7 +6075,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6101,7 +6098,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6122,7 +6119,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6144,7 +6141,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6165,7 +6162,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6188,7 +6185,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6210,7 +6207,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6233,7 +6230,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6255,7 +6252,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6277,7 +6274,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6299,7 +6296,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6322,7 +6319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6345,7 +6342,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6368,7 +6365,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6391,7 +6388,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -6414,7 +6411,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6436,7 +6433,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6457,7 +6454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6479,7 +6476,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6501,7 +6498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6523,7 +6520,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6545,7 +6542,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6567,7 +6564,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6589,7 +6586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6611,7 +6608,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6633,7 +6630,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6655,7 +6652,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6678,7 +6675,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6700,7 +6697,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6722,7 +6719,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
           </pm:border>
@@ -6744,7 +6741,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6765,7 +6762,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFFF"/>
@@ -6788,7 +6785,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
@@ -6810,7 +6807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6833,7 +6830,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6856,7 +6853,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6879,7 +6876,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -6902,7 +6899,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6924,7 +6921,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -6945,7 +6942,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6967,7 +6964,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -6989,7 +6986,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
@@ -7012,7 +7009,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7033,7 +7030,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7054,7 +7051,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7075,7 +7072,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7096,7 +7093,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7117,7 +7114,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7138,7 +7135,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7159,7 +7156,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7181,7 +7178,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7203,7 +7200,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7225,7 +7222,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7247,7 +7244,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7269,7 +7266,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7292,7 +7289,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7314,7 +7311,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7335,7 +7332,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7356,7 +7353,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7377,7 +7374,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7398,7 +7395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7419,7 +7416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7440,7 +7437,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7462,7 +7459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7483,7 +7480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7504,7 +7501,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7525,7 +7522,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7547,7 +7544,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7568,7 +7565,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7589,7 +7586,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7610,7 +7607,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7631,7 +7628,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7652,7 +7649,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
         </ext>
@@ -7673,7 +7670,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="AAAAAA"/>
           </pm:border>
         </ext>
@@ -7694,7 +7691,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7715,7 +7712,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7737,7 +7734,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7758,7 +7755,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -7781,7 +7778,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7803,7 +7800,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7825,7 +7822,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7847,7 +7844,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7868,7 +7865,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7889,7 +7886,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -7911,7 +7908,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695"/>
+          <pm:border xmlns:pm="smNativeData" id="1716123308"/>
         </ext>
       </extLst>
     </border>
@@ -7930,7 +7927,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -7951,7 +7948,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1715850695">
+          <pm:border xmlns:pm="smNativeData" id="1716123308">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -9426,10 +9423,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1715850695" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1716123308" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1715850695" count="31">
+      <pm:colors xmlns:pm="smNativeData" id="1716123308" count="31">
         <pm:color name="Color 24" rgb="DD0806"/>
         <pm:color name="Color 25" rgb="0563C1"/>
         <pm:color name="Color 26" rgb="800080"/>
@@ -9488,7 +9485,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAD1HgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAKgABAAAABgAAABYC0QEuAAAAQAEAAMIRAADqAgAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_rPZJZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAD1HgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAKgABAAAABgAAABYC0QEuAAAAQAEAAMIRAADqAgAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9543,7 +9540,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACnDwAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAABgAAAH4D9gEAAAAAkAEAAC0QAADYBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_rPZJZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAACnDwAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAABgAAAH4D9gEAAAAAkAEAAC0QAADYBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9593,7 +9590,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADsAAAAFAAAA+AG3ADsAAAALAAAANwKnBHQLAABURQAAzhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_rPZJZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAAAAAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADsAAAAFAAAA+AG3ADsAAAALAAAANwKnBHQLAABURQAAzhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9639,7 +9636,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEFBQUEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADwAAAAFAAAAuQHJADwAAAALAAAA+AG7BIQLAABIRgAAvhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_rPZJZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAEFBQUEeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAADwAAAAFAAAAuQHJADwAAAALAAAA+AG7BIQLAABIRgAAvhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9685,7 +9682,7 @@
         <xdr:cNvCxnSpPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_x81FZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIULAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAD0AAAAFAAAA+AG3AD0AAAALAAAANwK7BHQLAABcRwAAzhgAABAAAAAAAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_rPZJZhMAAAAlAAAADQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAABAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAADAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAABcAAAAUAAAAAAAAAAAAAAD/fwAA/38AAAAAAAAJAAAABAAAAIULAAAeAAAAaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAECcAABAnAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABQAAAAAAAAAwMD/AAAAAABkAAAAMgAAAAAAAABkAAAAAAAAAH9/fwAKAAAAIgAAABgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAkAAAAJAAAAAAAAAAHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf39/ACUAAABYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA/AAAAAAAAAKCGAQAAAAAAAAAAAAAAAAAMAAAAAQAAAAAAAAAAAAAAAAAAACEAAAAwAAAALAAAAD0AAAAFAAAA+AG3AD0AAAALAAAANwK7BHQLAABcRwAAzhgAABAAAAAAAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvCxnSpPr>
@@ -9737,7 +9734,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAEcB+AAAAAAAPAEAAOgMAAD4AgAAAQAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_rPZJZhMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAEcB+AAAAAAAPAEAAOgMAAD4AgAAAQAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9792,7 +9789,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAADQADgABAAAAAwAAAKMCNgEUAAAAuwEAAPcVAACoBQAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_rPZJZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAADQADgABAAAAAwAAAKMCNgEUAAAAuwEAAPcVAACoBQAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -9847,7 +9844,7 @@
         <xdr:cNvPicPr>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_x81FZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAIgCsgQAAAAAPAEAAJgRAADYBAAAAAAAAA=="/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_15_rPZJZhMAAAAlAAAAEQAAAI0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAZAAAAAEAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAUAAAAAQAAABQAAAAUAAAAFAAAAAEAAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAAAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAABABsvHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACIAAAAYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJAAAACQAAAAAAAAABwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAH9/fwAlAAAAWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPwAAAAAAAACghgEAAAAAAAAAAAAAAAAADAAAAAEAAAAAAAAAAAAAAAAAAAAhAAAAMAAAACwAAAABAAAAAAAAAAAAAAABAAAAAgAAAIgCsgQAAAAAPAEAAJgRAADYBAAAAAAAAA=="/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -10139,9 +10136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:V262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="normal" zoomScale="175" workbookViewId="0">
+    <sheetView showGridLines="0" view="normal" zoomScale="170" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="7" defaultColWidth="7.744361" defaultRowHeight="20" customHeight="1"/>
@@ -10157,7 +10154,7 @@
     <col min="10" max="10" width="7.639098" customWidth="1" style="2"/>
     <col min="11" max="11" width="6.789474" customWidth="1" style="2"/>
     <col min="12" max="12" width="6.090226" customWidth="1" style="2"/>
-    <col min="13" max="13" width="6.436090" customWidth="1" style="2"/>
+    <col min="13" max="13" width="6.421053" customWidth="1" style="2"/>
     <col min="14" max="14" width="6.669173" customWidth="1" style="2"/>
     <col min="15" max="15" width="4.345865" customWidth="1" style="2"/>
     <col min="16" max="16" width="6.000000" customWidth="1" style="148"/>
@@ -10821,14 +10818,14 @@
       </c>
       <c r="F17" s="216"/>
       <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
+      <c r="H17" s="103" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" s="104"/>
       <c r="J17" s="105"/>
       <c r="K17" s="106"/>
       <c r="L17" s="107"/>
-      <c r="M17" s="232" t="n">
-        <v>1</v>
-      </c>
+      <c r="M17" s="232"/>
       <c r="N17" s="233">
         <f>SUM(F17:M17)</f>
         <v>1</v>
@@ -11245,14 +11242,14 @@
       </c>
       <c r="F27" s="218"/>
       <c r="G27" s="339"/>
-      <c r="H27" s="340"/>
+      <c r="H27" s="340" t="n">
+        <v>1</v>
+      </c>
       <c r="I27" s="341"/>
       <c r="J27" s="342"/>
       <c r="K27" s="343"/>
       <c r="L27" s="344"/>
-      <c r="M27" s="228" t="n">
-        <v>1</v>
-      </c>
+      <c r="M27" s="228"/>
       <c r="N27" s="229">
         <f>SUM(F27:M27)</f>
         <v>1</v>
@@ -11331,14 +11328,14 @@
       </c>
       <c r="F29" s="218"/>
       <c r="G29" s="339"/>
-      <c r="H29" s="340"/>
+      <c r="H29" s="340" t="n">
+        <v>1</v>
+      </c>
       <c r="I29" s="341"/>
       <c r="J29" s="342"/>
       <c r="K29" s="343"/>
       <c r="L29" s="344"/>
-      <c r="M29" s="228" t="n">
-        <v>1</v>
-      </c>
+      <c r="M29" s="228"/>
       <c r="N29" s="229">
         <f>SUM(F29:M29)</f>
         <v>1</v>
@@ -11579,14 +11576,14 @@
       </c>
       <c r="F35" s="217"/>
       <c r="G35" s="41"/>
-      <c r="H35" s="40"/>
+      <c r="H35" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="I35" s="39"/>
       <c r="J35" s="42"/>
       <c r="K35" s="44"/>
       <c r="L35" s="43"/>
-      <c r="M35" s="234" t="n">
-        <v>1</v>
-      </c>
+      <c r="M35" s="234"/>
       <c r="N35" s="229">
         <f>SUM(F35:M35)</f>
         <v>1</v>
@@ -13501,10 +13498,10 @@
       <c r="E81" s="221" t="n">
         <v>140</v>
       </c>
-      <c r="F81" s="218" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="339"/>
+      <c r="F81" s="218"/>
+      <c r="G81" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H81" s="340"/>
       <c r="I81" s="341"/>
       <c r="J81" s="342"/>
@@ -13587,11 +13584,11 @@
       <c r="E83" s="221" t="n">
         <v>202</v>
       </c>
-      <c r="F83" s="217" t="n">
-        <v>1</v>
-      </c>
+      <c r="F83" s="217"/>
       <c r="G83" s="41"/>
-      <c r="H83" s="40"/>
+      <c r="H83" s="40" t="n">
+        <v>1</v>
+      </c>
       <c r="I83" s="39"/>
       <c r="J83" s="42"/>
       <c r="K83" s="44"/>
@@ -14289,11 +14286,11 @@
         <v>134</v>
       </c>
       <c r="F100" s="217"/>
-      <c r="G100" s="41"/>
+      <c r="G100" s="41" t="n">
+        <v>2</v>
+      </c>
       <c r="H100" s="40"/>
-      <c r="I100" s="39" t="n">
-        <v>2</v>
-      </c>
+      <c r="I100" s="39"/>
       <c r="J100" s="42"/>
       <c r="K100" s="44"/>
       <c r="L100" s="43"/>
@@ -14332,11 +14329,11 @@
         <v>106</v>
       </c>
       <c r="F101" s="218"/>
-      <c r="G101" s="339"/>
+      <c r="G101" s="339" t="n">
+        <v>2</v>
+      </c>
       <c r="H101" s="340"/>
-      <c r="I101" s="341" t="n">
-        <v>2</v>
-      </c>
+      <c r="I101" s="341"/>
       <c r="J101" s="342"/>
       <c r="K101" s="343"/>
       <c r="L101" s="344"/>
@@ -14375,11 +14372,11 @@
         <v>123</v>
       </c>
       <c r="F102" s="218"/>
-      <c r="G102" s="339"/>
+      <c r="G102" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H102" s="340"/>
-      <c r="I102" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" s="341"/>
       <c r="J102" s="342"/>
       <c r="K102" s="343"/>
       <c r="L102" s="344"/>
@@ -14418,11 +14415,11 @@
         <v>121</v>
       </c>
       <c r="F103" s="217"/>
-      <c r="G103" s="41"/>
+      <c r="G103" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="H103" s="40"/>
-      <c r="I103" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" s="39"/>
       <c r="J103" s="42"/>
       <c r="K103" s="44"/>
       <c r="L103" s="43"/>
@@ -14461,11 +14458,11 @@
         <v>118</v>
       </c>
       <c r="F104" s="218"/>
-      <c r="G104" s="339"/>
+      <c r="G104" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H104" s="340"/>
-      <c r="I104" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" s="341"/>
       <c r="J104" s="342"/>
       <c r="K104" s="343"/>
       <c r="L104" s="344"/>
@@ -14504,11 +14501,11 @@
         <v>196</v>
       </c>
       <c r="F105" s="217"/>
-      <c r="G105" s="41"/>
+      <c r="G105" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="H105" s="40"/>
-      <c r="I105" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" s="39"/>
       <c r="J105" s="42"/>
       <c r="K105" s="44"/>
       <c r="L105" s="43"/>
@@ -14547,11 +14544,11 @@
         <v>87</v>
       </c>
       <c r="F106" s="218"/>
-      <c r="G106" s="339"/>
+      <c r="G106" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H106" s="340"/>
-      <c r="I106" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" s="341"/>
       <c r="J106" s="342"/>
       <c r="K106" s="343"/>
       <c r="L106" s="344"/>
@@ -14591,10 +14588,10 @@
       </c>
       <c r="F107" s="218"/>
       <c r="G107" s="339"/>
-      <c r="H107" s="340"/>
-      <c r="I107" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H107" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" s="341"/>
       <c r="J107" s="342"/>
       <c r="K107" s="343"/>
       <c r="L107" s="344"/>
@@ -14634,10 +14631,10 @@
       </c>
       <c r="F108" s="217"/>
       <c r="G108" s="41"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="H108" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" s="39"/>
       <c r="J108" s="42"/>
       <c r="K108" s="44"/>
       <c r="L108" s="43"/>
@@ -14677,10 +14674,10 @@
       </c>
       <c r="F109" s="218"/>
       <c r="G109" s="339"/>
-      <c r="H109" s="340"/>
-      <c r="I109" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H109" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" s="341"/>
       <c r="J109" s="342"/>
       <c r="K109" s="343"/>
       <c r="L109" s="344"/>
@@ -14720,10 +14717,10 @@
       </c>
       <c r="F110" s="218"/>
       <c r="G110" s="41"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="H110" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="39"/>
       <c r="J110" s="42"/>
       <c r="K110" s="44"/>
       <c r="L110" s="43"/>
@@ -14763,10 +14760,10 @@
       </c>
       <c r="F111" s="217"/>
       <c r="G111" s="339"/>
-      <c r="H111" s="340"/>
-      <c r="I111" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H111" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" s="341"/>
       <c r="J111" s="342"/>
       <c r="K111" s="343"/>
       <c r="L111" s="344"/>
@@ -14806,10 +14803,10 @@
       </c>
       <c r="F112" s="218"/>
       <c r="G112" s="339"/>
-      <c r="H112" s="340"/>
-      <c r="I112" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H112" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" s="341"/>
       <c r="J112" s="342"/>
       <c r="K112" s="343"/>
       <c r="L112" s="344"/>
@@ -14849,10 +14846,10 @@
       </c>
       <c r="F113" s="218"/>
       <c r="G113" s="41"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="H113" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" s="39"/>
       <c r="J113" s="42"/>
       <c r="K113" s="44"/>
       <c r="L113" s="43"/>
@@ -14891,11 +14888,11 @@
         <v>28</v>
       </c>
       <c r="F114" s="218"/>
-      <c r="G114" s="339"/>
+      <c r="G114" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H114" s="340"/>
-      <c r="I114" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" s="341"/>
       <c r="J114" s="342"/>
       <c r="K114" s="343"/>
       <c r="L114" s="344"/>
@@ -14934,11 +14931,11 @@
         <v>21</v>
       </c>
       <c r="F115" s="217"/>
-      <c r="G115" s="41"/>
+      <c r="G115" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="H115" s="40"/>
-      <c r="I115" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" s="39"/>
       <c r="J115" s="42"/>
       <c r="K115" s="44"/>
       <c r="L115" s="43"/>
@@ -14978,10 +14975,10 @@
       </c>
       <c r="F116" s="218"/>
       <c r="G116" s="339"/>
-      <c r="H116" s="340"/>
-      <c r="I116" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H116" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" s="341"/>
       <c r="J116" s="342"/>
       <c r="K116" s="343"/>
       <c r="L116" s="344"/>
@@ -15021,10 +15018,10 @@
       </c>
       <c r="F117" s="218"/>
       <c r="G117" s="339"/>
-      <c r="H117" s="340"/>
-      <c r="I117" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H117" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" s="341"/>
       <c r="J117" s="342"/>
       <c r="K117" s="343"/>
       <c r="L117" s="344"/>
@@ -15106,11 +15103,11 @@
         <v>20</v>
       </c>
       <c r="F119" s="218"/>
-      <c r="G119" s="339"/>
+      <c r="G119" s="339" t="n">
+        <v>1</v>
+      </c>
       <c r="H119" s="340"/>
-      <c r="I119" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" s="341"/>
       <c r="J119" s="342"/>
       <c r="K119" s="343"/>
       <c r="L119" s="344"/>
@@ -15149,11 +15146,11 @@
         <v>21</v>
       </c>
       <c r="F120" s="217"/>
-      <c r="G120" s="41"/>
+      <c r="G120" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="H120" s="40"/>
-      <c r="I120" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" s="39"/>
       <c r="J120" s="42"/>
       <c r="K120" s="44"/>
       <c r="L120" s="43"/>
@@ -15193,10 +15190,10 @@
       </c>
       <c r="F121" s="218"/>
       <c r="G121" s="339"/>
-      <c r="H121" s="340"/>
-      <c r="I121" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H121" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" s="341"/>
       <c r="J121" s="342"/>
       <c r="K121" s="343"/>
       <c r="L121" s="344"/>
@@ -15234,12 +15231,12 @@
       <c r="E122" s="211" t="n">
         <v>24</v>
       </c>
-      <c r="F122" s="218"/>
+      <c r="F122" s="218" t="n">
+        <v>1</v>
+      </c>
       <c r="G122" s="339"/>
       <c r="H122" s="340"/>
-      <c r="I122" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" s="341"/>
       <c r="J122" s="342"/>
       <c r="K122" s="343"/>
       <c r="L122" s="344"/>
@@ -15279,10 +15276,10 @@
       </c>
       <c r="F123" s="217"/>
       <c r="G123" s="41"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="H123" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" s="39"/>
       <c r="J123" s="42"/>
       <c r="K123" s="44"/>
       <c r="L123" s="43"/>
@@ -15322,10 +15319,10 @@
       </c>
       <c r="F124" s="218"/>
       <c r="G124" s="339"/>
-      <c r="H124" s="340"/>
-      <c r="I124" s="341" t="n">
-        <v>1</v>
-      </c>
+      <c r="H124" s="340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" s="341"/>
       <c r="J124" s="342"/>
       <c r="K124" s="343"/>
       <c r="L124" s="344"/>
@@ -15407,11 +15404,11 @@
         <v>22</v>
       </c>
       <c r="F126" s="217"/>
-      <c r="G126" s="41"/>
+      <c r="G126" s="41" t="n">
+        <v>1</v>
+      </c>
       <c r="H126" s="40"/>
-      <c r="I126" s="39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" s="39"/>
       <c r="J126" s="42"/>
       <c r="K126" s="44"/>
       <c r="L126" s="43"/>
@@ -20348,19 +20345,19 @@
       <c r="E246" s="224"/>
       <c r="F246" s="225">
         <f>SUM(F5:F244)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G246" s="247">
         <f>SUM(G5:G244)</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H246" s="248">
         <f>SUM(H5:H244)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I246" s="249">
         <f>SUM(I5:I244)</f>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J246" s="250">
         <f>SUM(J5:J244)</f>
@@ -20376,7 +20373,7 @@
       </c>
       <c r="M246" s="253">
         <f>SUM(M5:M244)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N246" s="174"/>
       <c r="O246"/>
@@ -20400,9 +20397,7 @@
       <c r="I247" s="25"/>
       <c r="J247" s="25"/>
       <c r="K247" s="25"/>
-      <c r="L247" s="25" t="s">
-        <v>300</v>
-      </c>
+      <c r="L247" s="25"/>
       <c r="M247" s="25"/>
       <c r="N247" s="29"/>
       <c r="O247" s="29"/>
@@ -20429,7 +20424,7 @@
       <c r="L248" s="28"/>
       <c r="M248" s="28"/>
       <c r="N248" s="61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O248" s="62"/>
       <c r="P248" s="177">
@@ -20458,7 +20453,7 @@
       <c r="L249" s="34"/>
       <c r="M249" s="34"/>
       <c r="N249" s="63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O249" s="64"/>
       <c r="P249" s="145">
@@ -20487,7 +20482,7 @@
       <c r="L250" s="25"/>
       <c r="M250" s="25"/>
       <c r="N250" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O250" s="65"/>
       <c r="P250" s="146">
@@ -20516,12 +20511,12 @@
       <c r="L251" s="25"/>
       <c r="M251" s="25"/>
       <c r="N251" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O251" s="91"/>
       <c r="P251" s="176">
         <f>Volumes!P64</f>
-        <v>13510</v>
+        <v>14540</v>
       </c>
       <c r="Q251" s="23"/>
       <c r="R251" s="4"/>
@@ -20545,12 +20540,12 @@
       <c r="L252" s="25"/>
       <c r="M252" s="25"/>
       <c r="N252" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O252" s="433"/>
       <c r="P252" s="434">
         <f>Volumes!P65</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q252" s="23"/>
       <c r="R252" s="4"/>
@@ -20574,12 +20569,12 @@
       <c r="L253" s="25"/>
       <c r="M253" s="25"/>
       <c r="N253" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O253" s="65"/>
       <c r="P253" s="146">
         <f>Volumes!P66</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q253" s="23"/>
       <c r="R253" s="4"/>
@@ -20603,7 +20598,7 @@
       <c r="L254" s="25"/>
       <c r="M254" s="25"/>
       <c r="N254" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O254" s="62"/>
       <c r="P254" s="177">
@@ -20632,7 +20627,7 @@
       <c r="L255" s="25"/>
       <c r="M255" s="25"/>
       <c r="N255" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O255" s="65"/>
       <c r="P255" s="146">
@@ -20661,7 +20656,7 @@
       <c r="L256" s="25"/>
       <c r="M256" s="25"/>
       <c r="N256" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O256" s="404"/>
       <c r="P256" s="405">
@@ -20690,7 +20685,7 @@
       <c r="L257" s="25"/>
       <c r="M257" s="25"/>
       <c r="N257" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O257" s="65"/>
       <c r="P257" s="175">
@@ -20719,7 +20714,7 @@
       <c r="L258" s="25"/>
       <c r="M258" s="25"/>
       <c r="N258" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O258" s="64"/>
       <c r="P258" s="145">
@@ -20748,7 +20743,7 @@
       <c r="L259" s="25"/>
       <c r="M259" s="25"/>
       <c r="N259" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O259" s="65"/>
       <c r="P259" s="175">
@@ -20777,7 +20772,7 @@
       <c r="L260" s="25"/>
       <c r="M260" s="25"/>
       <c r="N260" s="74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O260" s="365"/>
       <c r="P260" s="366" t="n">
@@ -20804,7 +20799,7 @@
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O261" s="365"/>
       <c r="P261" s="366" t="n">
@@ -20832,12 +20827,12 @@
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O262" s="70"/>
       <c r="P262" s="147">
         <f>P248+P251+P256+P257+P259-P260+P261+P254</f>
-        <v>20739</v>
+        <v>21769</v>
       </c>
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
@@ -20854,7 +20849,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716123308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -20864,8 +20859,8 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -20875,7 +20870,7 @@
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716123308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -20888,9 +20883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:JE66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="normal" zoomScale="215" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="normal" zoomScale="195" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="7" defaultColWidth="8.120301" defaultRowHeight="13" customHeight="1"/>
@@ -20912,7 +20907,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="20" customHeight="1">
       <c r="A1" s="367" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -20976,7 +20971,7 @@
     </row>
     <row r="3" spans="1:28" ht="58" customHeight="1">
       <c r="A3" s="406" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -21040,25 +21035,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="327" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="327" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="327" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="329" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="333" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="330" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="368" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I5" s="369" t="s">
         <v>10</v>
@@ -21070,16 +21065,16 @@
         <v>13</v>
       </c>
       <c r="L5" s="432" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="430" t="s">
         <v>322</v>
       </c>
-      <c r="M5" s="430" t="s">
+      <c r="N5" s="372" t="s">
         <v>323</v>
       </c>
-      <c r="N5" s="372" t="s">
+      <c r="O5" s="372" t="s">
         <v>324</v>
-      </c>
-      <c r="O5" s="372" t="s">
-        <v>325</v>
       </c>
       <c r="P5" s="373" t="s">
         <v>18</v>
@@ -21099,7 +21094,7 @@
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1">
       <c r="A6" s="161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B6" s="172"/>
       <c r="C6" s="172"/>
@@ -21131,13 +21126,13 @@
     </row>
     <row r="7" spans="1:28" ht="12" customHeight="1">
       <c r="A7" s="160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1</v>
@@ -21146,10 +21141,10 @@
         <v>185</v>
       </c>
       <c r="F7" s="197"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109" t="n">
+      <c r="G7" s="108" t="n">
         <v>2</v>
       </c>
+      <c r="H7" s="109"/>
       <c r="I7" s="110"/>
       <c r="J7" s="111"/>
       <c r="K7" s="112"/>
@@ -21183,10 +21178,10 @@
     <row r="8" spans="1:28" ht="12" customHeight="1">
       <c r="A8" s="194"/>
       <c r="B8" s="73" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="58" t="n">
         <v>1</v>
@@ -21195,10 +21190,10 @@
         <v>185</v>
       </c>
       <c r="F8" s="198"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="114" t="n">
+      <c r="G8" s="113" t="n">
         <v>2</v>
       </c>
+      <c r="H8" s="114"/>
       <c r="I8" s="115"/>
       <c r="J8" s="116"/>
       <c r="K8" s="117"/>
@@ -21232,10 +21227,10 @@
     <row r="9" spans="1:28" ht="12" customHeight="1">
       <c r="A9" s="194"/>
       <c r="B9" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>1</v>
@@ -21244,10 +21239,10 @@
         <v>185</v>
       </c>
       <c r="F9" s="199"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119" t="n">
+      <c r="G9" s="118" t="n">
         <v>2</v>
       </c>
+      <c r="H9" s="119"/>
       <c r="I9" s="120"/>
       <c r="J9" s="121"/>
       <c r="K9" s="122"/>
@@ -21281,10 +21276,10 @@
     <row r="10" spans="1:28" ht="12" customHeight="1">
       <c r="A10" s="375"/>
       <c r="B10" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>332</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>333</v>
       </c>
       <c r="D10" s="58" t="n">
         <v>1</v>
@@ -21293,10 +21288,10 @@
         <v>135</v>
       </c>
       <c r="F10" s="200"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="124" t="n">
+      <c r="G10" s="123" t="n">
         <v>2</v>
       </c>
+      <c r="H10" s="124"/>
       <c r="I10" s="125"/>
       <c r="J10" s="126"/>
       <c r="K10" s="127"/>
@@ -21329,13 +21324,13 @@
     </row>
     <row r="11" spans="1:28" ht="12" customHeight="1">
       <c r="A11" s="160" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="D11" s="8" t="n">
         <v>1</v>
@@ -21345,13 +21340,13 @@
       </c>
       <c r="F11" s="197"/>
       <c r="G11" s="108"/>
-      <c r="H11" s="109" t="n">
-        <v>1</v>
-      </c>
+      <c r="H11" s="109"/>
       <c r="I11" s="110"/>
       <c r="J11" s="111"/>
       <c r="K11" s="112"/>
-      <c r="L11" s="423"/>
+      <c r="L11" s="423" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" s="426"/>
       <c r="N11" s="206">
         <f>I11+H11+G11+F11+J11+K11+L11</f>
@@ -21381,10 +21376,10 @@
     <row r="12" spans="1:28" ht="12" customHeight="1">
       <c r="A12" s="194"/>
       <c r="B12" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>1</v>
@@ -21394,13 +21389,13 @@
       </c>
       <c r="F12" s="198"/>
       <c r="G12" s="113"/>
-      <c r="H12" s="114" t="n">
-        <v>1</v>
-      </c>
+      <c r="H12" s="114"/>
       <c r="I12" s="115"/>
       <c r="J12" s="116"/>
       <c r="K12" s="117"/>
-      <c r="L12" s="424"/>
+      <c r="L12" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" s="424"/>
       <c r="N12" s="204">
         <f>I12+H12+G12+F12+J12+K12+L12</f>
@@ -21430,10 +21425,10 @@
     <row r="13" spans="1:28" ht="12" customHeight="1">
       <c r="A13" s="194"/>
       <c r="B13" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>1</v>
@@ -21443,13 +21438,13 @@
       </c>
       <c r="F13" s="198"/>
       <c r="G13" s="113"/>
-      <c r="H13" s="114" t="n">
-        <v>1</v>
-      </c>
+      <c r="H13" s="114"/>
       <c r="I13" s="115"/>
       <c r="J13" s="116"/>
       <c r="K13" s="117"/>
-      <c r="L13" s="424"/>
+      <c r="L13" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" s="424"/>
       <c r="N13" s="204">
         <f>I13+H13+G13+F13+J13+K13+L13</f>
@@ -21479,10 +21474,10 @@
     <row r="14" spans="1:28" ht="12" customHeight="1">
       <c r="A14" s="375"/>
       <c r="B14" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D14" s="13" t="n">
         <v>1</v>
@@ -21492,13 +21487,13 @@
       </c>
       <c r="F14" s="200"/>
       <c r="G14" s="123"/>
-      <c r="H14" s="124" t="n">
-        <v>1</v>
-      </c>
+      <c r="H14" s="124"/>
       <c r="I14" s="125"/>
       <c r="J14" s="126"/>
       <c r="K14" s="127"/>
-      <c r="L14" s="427"/>
+      <c r="L14" s="427" t="n">
+        <v>1</v>
+      </c>
       <c r="M14" s="427"/>
       <c r="N14" s="205">
         <f>I14+H14+G14+F14+J14+K14+L14</f>
@@ -21527,13 +21522,13 @@
     </row>
     <row r="15" spans="1:28" ht="12" customHeight="1">
       <c r="A15" s="160" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="160" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="160" t="s">
         <v>340</v>
-      </c>
-      <c r="B15" s="160" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>341</v>
       </c>
       <c r="D15" s="435" t="n">
         <v>1</v>
@@ -21541,12 +21536,12 @@
       <c r="E15" s="209" t="n">
         <v>185</v>
       </c>
-      <c r="F15" s="201"/>
+      <c r="F15" s="201" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="128"/>
       <c r="H15" s="129"/>
-      <c r="I15" s="115" t="n">
-        <v>2</v>
-      </c>
+      <c r="I15" s="115"/>
       <c r="J15" s="131"/>
       <c r="K15" s="132"/>
       <c r="L15" s="428"/>
@@ -21579,10 +21574,10 @@
     <row r="16" spans="1:28" ht="12" customHeight="1">
       <c r="A16" s="194"/>
       <c r="B16" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
@@ -21590,12 +21585,12 @@
       <c r="E16" s="221" t="n">
         <v>185</v>
       </c>
-      <c r="F16" s="198"/>
+      <c r="F16" s="198" t="n">
+        <v>2</v>
+      </c>
       <c r="G16" s="113"/>
       <c r="H16" s="114"/>
-      <c r="I16" s="115" t="n">
-        <v>2</v>
-      </c>
+      <c r="I16" s="115"/>
       <c r="J16" s="116"/>
       <c r="K16" s="117"/>
       <c r="L16" s="424"/>
@@ -21628,10 +21623,10 @@
     <row r="17" spans="1:28" ht="12" customHeight="1">
       <c r="A17" s="194"/>
       <c r="B17" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="58" t="n">
         <v>1</v>
@@ -21641,10 +21636,10 @@
       </c>
       <c r="F17" s="202"/>
       <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135" t="n">
+      <c r="H17" s="134" t="n">
         <v>2</v>
       </c>
+      <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
       <c r="L17" s="426"/>
@@ -21677,10 +21672,10 @@
     <row r="18" spans="1:28" ht="12" customHeight="1">
       <c r="A18" s="194"/>
       <c r="B18" s="195" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="56" t="n">
         <v>1</v>
@@ -21690,10 +21685,10 @@
       </c>
       <c r="F18" s="201"/>
       <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130" t="n">
+      <c r="H18" s="129" t="n">
         <v>2</v>
       </c>
+      <c r="I18" s="130"/>
       <c r="J18" s="131"/>
       <c r="K18" s="132"/>
       <c r="L18" s="428"/>
@@ -21726,10 +21721,10 @@
     <row r="19" spans="1:28" ht="12" customHeight="1">
       <c r="A19" s="375"/>
       <c r="B19" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="13" t="n">
         <v>1</v>
@@ -21737,12 +21732,12 @@
       <c r="E19" s="213" t="n">
         <v>160</v>
       </c>
-      <c r="F19" s="200"/>
+      <c r="F19" s="200" t="n">
+        <v>2</v>
+      </c>
       <c r="G19" s="123"/>
       <c r="H19" s="124"/>
-      <c r="I19" s="125" t="n">
-        <v>2</v>
-      </c>
+      <c r="I19" s="125"/>
       <c r="J19" s="126"/>
       <c r="K19" s="127"/>
       <c r="L19" s="427"/>
@@ -21774,13 +21769,13 @@
     </row>
     <row r="20" spans="1:28" ht="12" customHeight="1">
       <c r="A20" s="160" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="160" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="160" t="s">
         <v>346</v>
-      </c>
-      <c r="B20" s="160" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="160" t="s">
-        <v>347</v>
       </c>
       <c r="D20" s="435" t="n">
         <v>1</v>
@@ -21788,10 +21783,10 @@
       <c r="E20" s="408" t="n">
         <v>225</v>
       </c>
-      <c r="F20" s="201" t="n">
+      <c r="F20" s="201"/>
+      <c r="G20" s="128" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="128"/>
       <c r="H20" s="129"/>
       <c r="I20" s="130"/>
       <c r="J20" s="131"/>
@@ -21826,10 +21821,10 @@
     <row r="21" spans="1:28" ht="12" customHeight="1">
       <c r="A21" s="194"/>
       <c r="B21" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>1</v>
@@ -21837,10 +21832,10 @@
       <c r="E21" s="211" t="n">
         <v>225</v>
       </c>
-      <c r="F21" s="198" t="n">
+      <c r="F21" s="198"/>
+      <c r="G21" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="113"/>
       <c r="H21" s="114"/>
       <c r="I21" s="115"/>
       <c r="J21" s="116"/>
@@ -21875,10 +21870,10 @@
     <row r="22" spans="1:28" ht="12" customHeight="1">
       <c r="A22" s="194"/>
       <c r="B22" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="10" t="n">
         <v>1</v>
@@ -21886,11 +21881,11 @@
       <c r="E22" s="211" t="n">
         <v>160</v>
       </c>
-      <c r="F22" s="198" t="n">
+      <c r="F22" s="198"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
       <c r="I22" s="115"/>
       <c r="J22" s="116"/>
       <c r="K22" s="117"/>
@@ -21924,10 +21919,10 @@
     <row r="23" spans="1:28" ht="12" customHeight="1">
       <c r="A23" s="375"/>
       <c r="B23" s="75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D23" s="82" t="n">
         <v>1</v>
@@ -21935,11 +21930,11 @@
       <c r="E23" s="219" t="n">
         <v>160</v>
       </c>
-      <c r="F23" s="377" t="n">
+      <c r="F23" s="377"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="379" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="378"/>
-      <c r="H23" s="379"/>
       <c r="I23" s="380"/>
       <c r="J23" s="381"/>
       <c r="K23" s="382"/>
@@ -21972,13 +21967,13 @@
     </row>
     <row r="24" spans="1:28" ht="12" customHeight="1">
       <c r="A24" s="160" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>351</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>352</v>
       </c>
       <c r="D24" s="56" t="n">
         <v>1</v>
@@ -21989,12 +21984,12 @@
       <c r="F24" s="201"/>
       <c r="G24" s="128"/>
       <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
+      <c r="I24" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J24" s="131"/>
       <c r="K24" s="132"/>
-      <c r="L24" s="428" t="n">
-        <v>1</v>
-      </c>
+      <c r="L24" s="428"/>
       <c r="M24" s="423"/>
       <c r="N24" s="206">
         <f>I24+H24+G24+F24+J24+K24+L24</f>
@@ -22024,10 +22019,10 @@
     <row r="25" spans="1:28" ht="12" customHeight="1">
       <c r="A25" s="194"/>
       <c r="B25" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>1</v>
@@ -22038,12 +22033,12 @@
       <c r="F25" s="198"/>
       <c r="G25" s="113"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
+      <c r="I25" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J25" s="116"/>
       <c r="K25" s="117"/>
-      <c r="L25" s="424" t="n">
-        <v>1</v>
-      </c>
+      <c r="L25" s="424"/>
       <c r="M25" s="424"/>
       <c r="N25" s="204">
         <f>I25+H25+G25+F25+J25+K25+L25</f>
@@ -22073,10 +22068,10 @@
     <row r="26" spans="1:28" ht="12" customHeight="1">
       <c r="A26" s="194"/>
       <c r="B26" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D26" s="10" t="n">
         <v>1</v>
@@ -22087,12 +22082,12 @@
       <c r="F26" s="198"/>
       <c r="G26" s="113"/>
       <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
+      <c r="I26" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J26" s="116"/>
       <c r="K26" s="117"/>
-      <c r="L26" s="424" t="n">
-        <v>1</v>
-      </c>
+      <c r="L26" s="424"/>
       <c r="M26" s="424"/>
       <c r="N26" s="204">
         <f>I26+H26+G26+F26+J26+K26+L26</f>
@@ -22122,10 +22117,10 @@
     <row r="27" spans="1:28" ht="12" customHeight="1">
       <c r="A27" s="194"/>
       <c r="B27" s="73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D27" s="58" t="n">
         <v>1</v>
@@ -22171,10 +22166,10 @@
     <row r="28" spans="1:28" ht="12" customHeight="1">
       <c r="A28" s="375"/>
       <c r="B28" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D28" s="82" t="n">
         <v>1</v>
@@ -22219,13 +22214,13 @@
     </row>
     <row r="29" spans="1:263" s="84" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="160" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="C29" s="52" t="s">
         <v>358</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>359</v>
       </c>
       <c r="D29" s="56" t="n">
         <v>1</v>
@@ -22236,12 +22231,12 @@
       <c r="F29" s="201"/>
       <c r="G29" s="128"/>
       <c r="H29" s="129"/>
-      <c r="I29" s="130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" s="130"/>
       <c r="J29" s="131"/>
       <c r="K29" s="132"/>
-      <c r="L29" s="428"/>
+      <c r="L29" s="428" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" s="423"/>
       <c r="N29" s="206">
         <f>I29+H29+G29+F29+J29+K29+L29</f>
@@ -22506,10 +22501,10 @@
     <row r="30" spans="1:263" s="84" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="194"/>
       <c r="B30" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D30" s="10" t="n">
         <v>1</v>
@@ -22520,12 +22515,12 @@
       <c r="F30" s="198"/>
       <c r="G30" s="113"/>
       <c r="H30" s="114"/>
-      <c r="I30" s="115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" s="115"/>
       <c r="J30" s="116"/>
       <c r="K30" s="117"/>
-      <c r="L30" s="424"/>
+      <c r="L30" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" s="424"/>
       <c r="N30" s="204">
         <f>I30+H30+G30+F30+J30+K30+L30</f>
@@ -22790,10 +22785,10 @@
     <row r="31" spans="1:16" ht="12" customHeight="1">
       <c r="A31" s="194"/>
       <c r="B31" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D31" s="56" t="n">
         <v>1</v>
@@ -22825,10 +22820,10 @@
     <row r="32" spans="1:16" ht="14" customHeight="1">
       <c r="A32" s="194"/>
       <c r="B32" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D32" s="10" t="n">
         <v>1</v>
@@ -22839,12 +22834,12 @@
       <c r="F32" s="198"/>
       <c r="G32" s="113"/>
       <c r="H32" s="114"/>
-      <c r="I32" s="115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" s="115"/>
       <c r="J32" s="116"/>
       <c r="K32" s="117"/>
-      <c r="L32" s="424"/>
+      <c r="L32" s="424" t="n">
+        <v>1</v>
+      </c>
       <c r="M32" s="424"/>
       <c r="N32" s="204">
         <f>I32+H32+G32+F32+J32+K32+L32</f>
@@ -22862,10 +22857,10 @@
     <row r="33" spans="1:16" ht="13" customHeight="1">
       <c r="A33" s="375"/>
       <c r="B33" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D33" s="13" t="n">
         <v>1</v>
@@ -22896,13 +22891,13 @@
     </row>
     <row r="34" spans="1:16" ht="13" customHeight="1">
       <c r="A34" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="C34" s="52" t="s">
         <v>365</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>366</v>
       </c>
       <c r="D34" s="56" t="n">
         <v>1</v>
@@ -22911,14 +22906,14 @@
         <v>265</v>
       </c>
       <c r="F34" s="201"/>
-      <c r="G34" s="128" t="n">
-        <v>2</v>
-      </c>
+      <c r="G34" s="128"/>
       <c r="H34" s="129"/>
       <c r="I34" s="130"/>
       <c r="J34" s="131"/>
       <c r="K34" s="132"/>
-      <c r="L34" s="428"/>
+      <c r="L34" s="428" t="n">
+        <v>2</v>
+      </c>
       <c r="M34" s="423"/>
       <c r="N34" s="207">
         <f>I34+H34+G34+F34+J34+K34+L34</f>
@@ -22936,10 +22931,10 @@
     <row r="35" spans="1:16" ht="13" customHeight="1">
       <c r="A35" s="194"/>
       <c r="B35" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
@@ -22973,10 +22968,10 @@
     <row r="36" spans="1:16" ht="13" customHeight="1">
       <c r="A36" s="194"/>
       <c r="B36" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D36" s="56" t="n">
         <v>1</v>
@@ -22985,14 +22980,14 @@
         <v>260</v>
       </c>
       <c r="F36" s="201"/>
-      <c r="G36" s="128" t="n">
-        <v>2</v>
-      </c>
+      <c r="G36" s="128"/>
       <c r="H36" s="129"/>
       <c r="I36" s="130"/>
       <c r="J36" s="131"/>
       <c r="K36" s="132"/>
-      <c r="L36" s="428"/>
+      <c r="L36" s="428" t="n">
+        <v>2</v>
+      </c>
       <c r="M36" s="424"/>
       <c r="N36" s="207">
         <f>I36+H36+G36+F36+J36+K36+L36</f>
@@ -23010,10 +23005,10 @@
     <row r="37" spans="1:16" ht="13" customHeight="1">
       <c r="A37" s="194"/>
       <c r="B37" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D37" s="10" t="n">
         <v>1</v>
@@ -23047,10 +23042,10 @@
     <row r="38" spans="1:16" ht="13" customHeight="1">
       <c r="A38" s="194"/>
       <c r="B38" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D38" s="56" t="n">
         <v>1</v>
@@ -23059,14 +23054,14 @@
         <v>195</v>
       </c>
       <c r="F38" s="201"/>
-      <c r="G38" s="128" t="n">
-        <v>2</v>
-      </c>
+      <c r="G38" s="128"/>
       <c r="H38" s="129"/>
       <c r="I38" s="130"/>
       <c r="J38" s="131"/>
       <c r="K38" s="132"/>
-      <c r="L38" s="428"/>
+      <c r="L38" s="428" t="n">
+        <v>2</v>
+      </c>
       <c r="M38" s="424"/>
       <c r="N38" s="207">
         <f>I38+H38+G38+F38+J38+K38+L38</f>
@@ -23084,10 +23079,10 @@
     <row r="39" spans="1:16" ht="13" customHeight="1">
       <c r="A39" s="375"/>
       <c r="B39" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D39" s="13" t="n">
         <v>1</v>
@@ -23120,13 +23115,13 @@
     </row>
     <row r="40" spans="1:265" ht="13" customHeight="1">
       <c r="A40" s="160" t="s">
+        <v>371</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="52" t="s">
         <v>372</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>373</v>
       </c>
       <c r="D40" s="56" t="n">
         <v>1</v>
@@ -23137,12 +23132,12 @@
       <c r="F40" s="201"/>
       <c r="G40" s="128"/>
       <c r="H40" s="129"/>
-      <c r="I40" s="130" t="n">
-        <v>2</v>
-      </c>
+      <c r="I40" s="130"/>
       <c r="J40" s="131"/>
       <c r="K40" s="132"/>
-      <c r="L40" s="428"/>
+      <c r="L40" s="428" t="n">
+        <v>2</v>
+      </c>
       <c r="M40" s="428"/>
       <c r="N40" s="207">
         <f>I40+H40+G40+F40+J40+K40+L40</f>
@@ -23163,10 +23158,10 @@
     <row r="41" spans="1:265" ht="13" customHeight="1">
       <c r="A41" s="194"/>
       <c r="B41" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" s="10" t="n">
         <v>1</v>
@@ -23177,12 +23172,12 @@
       <c r="F41" s="198"/>
       <c r="G41" s="113"/>
       <c r="H41" s="114"/>
-      <c r="I41" s="115" t="n">
-        <v>2</v>
-      </c>
+      <c r="I41" s="115"/>
       <c r="J41" s="116"/>
       <c r="K41" s="117"/>
-      <c r="L41" s="424"/>
+      <c r="L41" s="424" t="n">
+        <v>2</v>
+      </c>
       <c r="M41" s="424"/>
       <c r="N41" s="204">
         <f>I41+H41+G41+F41+J41+K41+L41</f>
@@ -23203,10 +23198,10 @@
     <row r="42" spans="1:265" ht="13" customHeight="1">
       <c r="A42" s="194"/>
       <c r="B42" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" s="10" t="n">
         <v>1</v>
@@ -23217,12 +23212,12 @@
       <c r="F42" s="198"/>
       <c r="G42" s="113"/>
       <c r="H42" s="114"/>
-      <c r="I42" s="115" t="n">
-        <v>2</v>
-      </c>
+      <c r="I42" s="115"/>
       <c r="J42" s="116"/>
       <c r="K42" s="117"/>
-      <c r="L42" s="424"/>
+      <c r="L42" s="424" t="n">
+        <v>2</v>
+      </c>
       <c r="M42" s="424"/>
       <c r="N42" s="204">
         <f>I42+H42+G42+F42+J42+K42+L42</f>
@@ -23243,10 +23238,10 @@
     <row r="43" spans="1:265" ht="13" customHeight="1">
       <c r="A43" s="194"/>
       <c r="B43" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" s="10" t="n">
         <v>1</v>
@@ -23256,10 +23251,10 @@
       </c>
       <c r="F43" s="198"/>
       <c r="G43" s="113"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="115" t="n">
+      <c r="H43" s="114" t="n">
         <v>2</v>
       </c>
+      <c r="I43" s="115"/>
       <c r="J43" s="116"/>
       <c r="K43" s="117"/>
       <c r="L43" s="424"/>
@@ -23283,10 +23278,10 @@
     <row r="44" spans="1:265" ht="13" customHeight="1">
       <c r="A44" s="194"/>
       <c r="B44" s="195" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="195" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D44" s="60" t="n">
         <v>1</v>
@@ -23296,10 +23291,10 @@
       </c>
       <c r="F44" s="199"/>
       <c r="G44" s="118"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="120" t="n">
+      <c r="H44" s="119" t="n">
         <v>2</v>
       </c>
+      <c r="I44" s="120"/>
       <c r="J44" s="121"/>
       <c r="K44" s="122"/>
       <c r="L44" s="425"/>
@@ -23350,7 +23345,7 @@
     </row>
     <row r="47" spans="1:16" ht="13" customHeight="1">
       <c r="A47" s="355" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B47" s="74"/>
       <c r="C47" s="74"/>
@@ -23370,13 +23365,13 @@
     </row>
     <row r="48" spans="1:16" ht="13" customHeight="1">
       <c r="A48" s="160" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="52" t="s">
         <v>379</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>380</v>
       </c>
       <c r="D48" s="56" t="n">
         <v>1</v>
@@ -23384,12 +23379,12 @@
       <c r="E48" s="215" t="n">
         <v>220</v>
       </c>
-      <c r="F48" s="201" t="n">
-        <v>1</v>
-      </c>
+      <c r="F48" s="201"/>
       <c r="G48" s="128"/>
       <c r="H48" s="129"/>
-      <c r="I48" s="130"/>
+      <c r="I48" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J48" s="131"/>
       <c r="K48" s="132"/>
       <c r="L48" s="428"/>
@@ -23410,10 +23405,10 @@
     <row r="49" spans="1:16" ht="13" customHeight="1">
       <c r="A49" s="194"/>
       <c r="B49" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D49" s="10" t="n">
         <v>1</v>
@@ -23421,12 +23416,12 @@
       <c r="E49" s="211" t="n">
         <v>220</v>
       </c>
-      <c r="F49" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F49" s="198"/>
       <c r="G49" s="113"/>
       <c r="H49" s="114"/>
-      <c r="I49" s="115"/>
+      <c r="I49" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J49" s="116"/>
       <c r="K49" s="117"/>
       <c r="L49" s="424"/>
@@ -23447,10 +23442,10 @@
     <row r="50" spans="1:16" ht="13" customHeight="1">
       <c r="A50" s="194"/>
       <c r="B50" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="56" t="n">
         <v>1</v>
@@ -23458,12 +23453,12 @@
       <c r="E50" s="215" t="n">
         <v>220</v>
       </c>
-      <c r="F50" s="201" t="n">
-        <v>1</v>
-      </c>
+      <c r="F50" s="201"/>
       <c r="G50" s="128"/>
       <c r="H50" s="129"/>
-      <c r="I50" s="130"/>
+      <c r="I50" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="131"/>
       <c r="K50" s="132"/>
       <c r="L50" s="428"/>
@@ -23484,10 +23479,10 @@
     <row r="51" spans="1:16" ht="13" customHeight="1">
       <c r="A51" s="194"/>
       <c r="B51" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D51" s="10" t="n">
         <v>1</v>
@@ -23495,12 +23490,12 @@
       <c r="E51" s="211" t="n">
         <v>215</v>
       </c>
-      <c r="F51" s="198" t="n">
-        <v>1</v>
-      </c>
+      <c r="F51" s="198"/>
       <c r="G51" s="113"/>
       <c r="H51" s="114"/>
-      <c r="I51" s="115"/>
+      <c r="I51" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J51" s="116"/>
       <c r="K51" s="117"/>
       <c r="L51" s="424"/>
@@ -23521,10 +23516,10 @@
     <row r="52" spans="1:16" ht="13" customHeight="1">
       <c r="A52" s="194"/>
       <c r="B52" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D52" s="56" t="n">
         <v>1</v>
@@ -23535,31 +23530,33 @@
       <c r="F52" s="201"/>
       <c r="G52" s="128"/>
       <c r="H52" s="129"/>
-      <c r="I52" s="130"/>
+      <c r="I52" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J52" s="131"/>
       <c r="K52" s="132"/>
       <c r="L52" s="428"/>
       <c r="M52" s="428"/>
       <c r="N52" s="207">
         <f>I52+H52+G52+F52+J52+K52+L52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="384">
         <f>N52*D52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="71">
         <f>N52*E52</f>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="13" customHeight="1">
       <c r="A53" s="194"/>
       <c r="B53" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D53" s="10" t="n">
         <v>1</v>
@@ -23570,31 +23567,33 @@
       <c r="F53" s="198"/>
       <c r="G53" s="113"/>
       <c r="H53" s="114"/>
-      <c r="I53" s="115"/>
+      <c r="I53" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J53" s="116"/>
       <c r="K53" s="117"/>
       <c r="L53" s="424"/>
       <c r="M53" s="424"/>
       <c r="N53" s="204">
         <f>I53+H53+G53+F53+J53+K53+L53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="439">
         <f>N53*D53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="374">
         <f>N53*E53</f>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="13" customHeight="1">
       <c r="A54" s="194"/>
       <c r="B54" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" s="56" t="n">
         <v>1</v>
@@ -23605,31 +23604,33 @@
       <c r="F54" s="201"/>
       <c r="G54" s="128"/>
       <c r="H54" s="129"/>
-      <c r="I54" s="130"/>
+      <c r="I54" s="130" t="n">
+        <v>1</v>
+      </c>
       <c r="J54" s="131"/>
       <c r="K54" s="132"/>
       <c r="L54" s="428"/>
       <c r="M54" s="428"/>
       <c r="N54" s="207">
         <f>I54+H54+G54+F54+J54+K54+L54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="384">
         <f>N54*D54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="71">
         <f>N54*E54</f>
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="13" customHeight="1">
       <c r="A55" s="194"/>
       <c r="B55" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D55" s="10" t="n">
         <v>1</v>
@@ -23640,31 +23641,33 @@
       <c r="F55" s="198"/>
       <c r="G55" s="113"/>
       <c r="H55" s="114"/>
-      <c r="I55" s="115"/>
+      <c r="I55" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="J55" s="116"/>
       <c r="K55" s="117"/>
       <c r="L55" s="424"/>
       <c r="M55" s="424"/>
       <c r="N55" s="204">
         <f>I55+H55+G55+F55+J55+K55+L55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="439">
         <f>N55*D55</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="374">
         <f>N55*E55</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="13" customHeight="1">
       <c r="A56" s="194"/>
       <c r="B56" s="195" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C56" s="195" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D56" s="60" t="n">
         <v>1</v>
@@ -23675,22 +23678,24 @@
       <c r="F56" s="199"/>
       <c r="G56" s="118"/>
       <c r="H56" s="119"/>
-      <c r="I56" s="120"/>
+      <c r="I56" s="120" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" s="121"/>
       <c r="K56" s="122"/>
       <c r="L56" s="425"/>
       <c r="M56" s="428"/>
       <c r="N56" s="208">
         <f>I56+H56+G56+F56+J56+K56+L56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="442">
         <f>N56*D56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="72">
         <f>N56*E56</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="13" customHeight="1">
@@ -23731,7 +23736,7 @@
     </row>
     <row r="59" spans="1:16" ht="13" customHeight="1">
       <c r="A59" s="355" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="74"/>
       <c r="C59" s="74"/>
@@ -23745,7 +23750,7 @@
       <c r="K59" s="353"/>
       <c r="L59" s="422"/>
       <c r="M59" s="431" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N59" s="389"/>
       <c r="O59" s="444"/>
@@ -23753,13 +23758,13 @@
     </row>
     <row r="60" spans="1:16" ht="13" customHeight="1">
       <c r="A60" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="52" t="s">
         <v>390</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>391</v>
       </c>
       <c r="D60" s="56" t="n">
         <v>2</v>
@@ -23790,10 +23795,10 @@
     </row>
     <row r="61" spans="2:16" ht="13" customHeight="1">
       <c r="B61" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="D61" s="10" t="n">
         <v>2</v>
@@ -23824,10 +23829,10 @@
     </row>
     <row r="62" spans="2:16" ht="13" customHeight="1">
       <c r="B62" s="195" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C62" s="195" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D62" s="60" t="n">
         <v>2</v>
@@ -23858,35 +23863,35 @@
     </row>
     <row r="64" spans="12:16" ht="13" customHeight="1">
       <c r="L64" s="391" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M64" s="391"/>
       <c r="N64" s="392"/>
       <c r="O64" s="392"/>
       <c r="P64" s="376">
         <f>SUM(P7:P62)</f>
-        <v>13510</v>
+        <v>14540</v>
       </c>
     </row>
     <row r="65" spans="12:16" ht="13" customHeight="1">
       <c r="L65" s="445" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M65" s="445"/>
       <c r="N65" s="446"/>
       <c r="O65" s="446"/>
       <c r="P65" s="157">
         <f>SUM(N7:N62)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="12:16" ht="13" customHeight="1">
       <c r="L66" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P66" s="447">
         <f>SUM(O7:O62)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -23896,7 +23901,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716123308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23906,15 +23911,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716123308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -23927,7 +23932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="normal" topLeftCell="A17" zoomScale="155" workbookViewId="0">
+    <sheetView showGridLines="0" view="normal" zoomScale="155" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -23947,7 +23952,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="367" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -23968,14 +23973,14 @@
       <c r="F2" s="259"/>
       <c r="G2" s="259"/>
       <c r="H2" s="452" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2" s="452"/>
       <c r="J2" s="260"/>
     </row>
     <row r="3" spans="1:10" ht="44" customHeight="1">
       <c r="A3" s="407" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="259"/>
       <c r="C3" s="259"/>
@@ -24000,10 +24005,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="286" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="270" t="s">
         <v>400</v>
-      </c>
-      <c r="B5" s="270" t="s">
-        <v>401</v>
       </c>
       <c r="C5" s="270" t="s">
         <v>4</v>
@@ -24013,13 +24018,13 @@
       </c>
       <c r="E5" s="315"/>
       <c r="F5" s="310" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="272" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="417" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I5" s="418" t="s">
         <v>18</v>
@@ -24027,13 +24032,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="275" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="292" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="293" t="s">
         <v>403</v>
-      </c>
-      <c r="B6" s="292" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" s="293" t="s">
-        <v>404</v>
       </c>
       <c r="D6" s="410" t="n">
         <v>571</v>
@@ -24053,13 +24058,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="306" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="393" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="297" t="s">
         <v>405</v>
-      </c>
-      <c r="B7" s="393" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="297" t="s">
-        <v>406</v>
       </c>
       <c r="D7" s="411" t="n">
         <v>1007</v>
@@ -24079,13 +24084,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="306" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="296" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="297" t="s">
         <v>407</v>
-      </c>
-      <c r="B8" s="296" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="297" t="s">
-        <v>408</v>
       </c>
       <c r="D8" s="411" t="n">
         <v>1113</v>
@@ -24129,7 +24134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="286" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B11" s="270"/>
       <c r="C11" s="270"/>
@@ -24144,10 +24149,10 @@
     <row r="12" spans="1:10">
       <c r="A12" s="291"/>
       <c r="B12" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" s="293" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D12" s="410" t="n">
         <v>545</v>
@@ -24168,10 +24173,10 @@
     <row r="13" spans="1:10">
       <c r="A13" s="295"/>
       <c r="B13" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" s="297" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="411" t="n">
         <v>395</v>
@@ -24203,7 +24208,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="269" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B15" s="300"/>
       <c r="C15" s="300"/>
@@ -24218,10 +24223,10 @@
     <row r="16" spans="1:10">
       <c r="A16" s="291"/>
       <c r="B16" s="292" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" s="302" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D16" s="414" t="n">
         <v>420</v>
@@ -24242,10 +24247,10 @@
     <row r="17" spans="1:10">
       <c r="A17" s="295"/>
       <c r="B17" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="297" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D17" s="411" t="n">
         <v>420</v>
@@ -24266,10 +24271,10 @@
     <row r="18" spans="1:10">
       <c r="A18" s="295"/>
       <c r="B18" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C18" s="297" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D18" s="411" t="n">
         <v>420</v>
@@ -24290,10 +24295,10 @@
     <row r="19" spans="1:10">
       <c r="A19" s="295"/>
       <c r="B19" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="297" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D19" s="411" t="n">
         <v>420</v>
@@ -24325,11 +24330,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B21" s="300"/>
       <c r="C21" s="300" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D21" s="413"/>
       <c r="E21" s="287"/>
@@ -24342,10 +24347,10 @@
     <row r="22" spans="1:10">
       <c r="A22" s="291"/>
       <c r="B22" s="275" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="293" t="s">
         <v>419</v>
-      </c>
-      <c r="C22" s="293" t="s">
-        <v>420</v>
       </c>
       <c r="D22" s="410" t="n">
         <v>115</v>
@@ -24362,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="323" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="281"/>
       <c r="B23" s="306" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C23" s="297" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D23" s="411" t="n">
         <v>115</v>
@@ -24392,10 +24397,10 @@
     <row r="24" spans="1:10">
       <c r="A24" s="285"/>
       <c r="B24" s="306" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="297" t="s">
         <v>423</v>
-      </c>
-      <c r="C24" s="297" t="s">
-        <v>424</v>
       </c>
       <c r="D24" s="411" t="n">
         <v>115</v>
@@ -24416,10 +24421,10 @@
     <row r="25" spans="1:10">
       <c r="A25" s="285"/>
       <c r="B25" s="306" t="s">
+        <v>424</v>
+      </c>
+      <c r="C25" s="297" t="s">
         <v>425</v>
-      </c>
-      <c r="C25" s="297" t="s">
-        <v>426</v>
       </c>
       <c r="D25" s="411" t="n">
         <v>115</v>
@@ -24440,10 +24445,10 @@
     <row r="26" spans="1:10">
       <c r="A26" s="285"/>
       <c r="B26" s="306" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C26" s="297" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D26" s="411" t="n">
         <v>115</v>
@@ -24475,7 +24480,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="269" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B28" s="300"/>
       <c r="C28" s="300"/>
@@ -24490,10 +24495,10 @@
     <row r="29" spans="1:10">
       <c r="A29" s="295"/>
       <c r="B29" s="281" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="397" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D29" s="412" t="n">
         <v>350</v>
@@ -24525,7 +24530,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="269" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B31" s="300"/>
       <c r="C31" s="300"/>
@@ -24540,10 +24545,10 @@
     <row r="32" spans="1:10">
       <c r="A32" s="285"/>
       <c r="B32" s="306" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C32" s="397" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D32" s="411" t="n">
         <v>40</v>
@@ -24574,13 +24579,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="269" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B34" s="300"/>
       <c r="C34" s="300"/>
       <c r="D34" s="413"/>
       <c r="E34" s="315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F34" s="288"/>
       <c r="G34" s="288"/>
@@ -24591,10 +24596,10 @@
     <row r="35" spans="1:10">
       <c r="A35" s="281"/>
       <c r="B35" s="306" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" s="325" t="s">
         <v>434</v>
-      </c>
-      <c r="C35" s="325" t="s">
-        <v>435</v>
       </c>
       <c r="D35" s="411" t="n">
         <v>31</v>
@@ -24615,10 +24620,10 @@
     <row r="36" spans="1:10">
       <c r="A36" s="285"/>
       <c r="B36" s="306" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" s="325" t="s">
         <v>436</v>
-      </c>
-      <c r="C36" s="325" t="s">
-        <v>437</v>
       </c>
       <c r="D36" s="411" t="n">
         <v>21</v>
@@ -24639,10 +24644,10 @@
     <row r="37" spans="1:10">
       <c r="A37" s="285"/>
       <c r="B37" s="306" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" s="325" t="s">
         <v>438</v>
-      </c>
-      <c r="C37" s="325" t="s">
-        <v>439</v>
       </c>
       <c r="D37" s="411" t="n">
         <v>11</v>
@@ -24663,10 +24668,10 @@
     <row r="38" spans="1:10">
       <c r="A38" s="285"/>
       <c r="B38" s="306" t="s">
+        <v>439</v>
+      </c>
+      <c r="C38" s="325" t="s">
         <v>440</v>
-      </c>
-      <c r="C38" s="325" t="s">
-        <v>441</v>
       </c>
       <c r="D38" s="411" t="n">
         <v>12</v>
@@ -24687,10 +24692,10 @@
     <row r="39" spans="1:10">
       <c r="A39" s="285"/>
       <c r="B39" s="306" t="s">
+        <v>441</v>
+      </c>
+      <c r="C39" s="325" t="s">
         <v>442</v>
-      </c>
-      <c r="C39" s="325" t="s">
-        <v>443</v>
       </c>
       <c r="D39" s="411" t="n">
         <v>13</v>
@@ -24711,10 +24716,10 @@
     <row r="40" spans="1:10">
       <c r="A40" s="285"/>
       <c r="B40" s="306" t="s">
+        <v>443</v>
+      </c>
+      <c r="C40" s="325" t="s">
         <v>444</v>
-      </c>
-      <c r="C40" s="325" t="s">
-        <v>445</v>
       </c>
       <c r="D40" s="411" t="n">
         <v>14</v>
@@ -24735,10 +24740,10 @@
     <row r="41" spans="1:10">
       <c r="A41" s="281"/>
       <c r="B41" s="306" t="s">
+        <v>445</v>
+      </c>
+      <c r="C41" s="325" t="s">
         <v>446</v>
-      </c>
-      <c r="C41" s="325" t="s">
-        <v>447</v>
       </c>
       <c r="D41" s="411" t="n">
         <v>15</v>
@@ -24759,10 +24764,10 @@
     <row r="42" spans="1:10">
       <c r="A42" s="295"/>
       <c r="B42" s="306" t="s">
+        <v>447</v>
+      </c>
+      <c r="C42" s="325" t="s">
         <v>448</v>
-      </c>
-      <c r="C42" s="325" t="s">
-        <v>449</v>
       </c>
       <c r="D42" s="411" t="n">
         <v>3</v>
@@ -24782,10 +24787,10 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="306" t="s">
+        <v>449</v>
+      </c>
+      <c r="C43" s="325" t="s">
         <v>450</v>
-      </c>
-      <c r="C43" s="325" t="s">
-        <v>451</v>
       </c>
       <c r="D43" s="411" t="n">
         <v>2</v>
@@ -24805,7 +24810,7 @@
     </row>
     <row r="45" spans="7:9">
       <c r="G45" s="308" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H45" s="309"/>
       <c r="I45" s="290">
@@ -24823,7 +24828,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716123308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -24833,15 +24838,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716123308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -24872,7 +24877,7 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="367" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" s="254"/>
       <c r="C1" s="254"/>
@@ -24904,7 +24909,7 @@
       <c r="F2" s="259"/>
       <c r="G2" s="259"/>
       <c r="H2" s="396" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I2" s="396"/>
       <c r="J2" s="260"/>
@@ -24922,7 +24927,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="171" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" s="264"/>
       <c r="C3" s="264"/>
@@ -24974,7 +24979,7 @@
         <v>UTURN Ball</v>
       </c>
       <c r="B5" s="270" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="270" t="s">
         <v>4</v>
@@ -24983,16 +24988,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="315" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F5" s="310" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="272" t="s">
         <v>456</v>
       </c>
-      <c r="G5" s="272" t="s">
-        <v>457</v>
-      </c>
       <c r="H5" s="417" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I5" s="418" t="s">
         <v>18</v>
@@ -25001,10 +25006,10 @@
     <row r="6" spans="1:11">
       <c r="A6" s="291"/>
       <c r="B6" s="292" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="293" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D6" s="320">
         <f>UTURN!D12</f>
@@ -25033,10 +25038,10 @@
     <row r="7" spans="1:11">
       <c r="A7" s="295"/>
       <c r="B7" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="297" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D7" s="321">
         <f>UTURN!D13</f>
@@ -25114,10 +25119,10 @@
     <row r="10" spans="1:11">
       <c r="A10" s="291"/>
       <c r="B10" s="292" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" s="302" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D10" s="322">
         <f>UTURN!D16</f>
@@ -25146,10 +25151,10 @@
     <row r="11" spans="1:11">
       <c r="A11" s="295"/>
       <c r="B11" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="297" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D11" s="321">
         <f>UTURN!D17</f>
@@ -25178,10 +25183,10 @@
     <row r="12" spans="1:10">
       <c r="A12" s="295"/>
       <c r="B12" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="297" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D12" s="321">
         <f>UTURN!D18</f>
@@ -25209,10 +25214,10 @@
     <row r="13" spans="1:10">
       <c r="A13" s="295"/>
       <c r="B13" s="296" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" s="297" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D13" s="321">
         <f>UTURN!D19</f>
@@ -25256,7 +25261,7 @@
       </c>
       <c r="B15" s="300"/>
       <c r="C15" s="300" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D15" s="287"/>
       <c r="E15" s="288"/>
@@ -25280,10 +25285,10 @@
     <row r="16" spans="1:10">
       <c r="A16" s="291"/>
       <c r="B16" s="275" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" s="293" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D16" s="320">
         <f>UTURN!D22</f>
@@ -25311,10 +25316,10 @@
     <row r="17" spans="1:10">
       <c r="A17" s="281"/>
       <c r="B17" s="306" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="297" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D17" s="321">
         <f>UTURN!D23</f>
@@ -25342,10 +25347,10 @@
     <row r="18" spans="1:10">
       <c r="A18" s="285"/>
       <c r="B18" s="306" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="297" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D18" s="321">
         <f>UTURN!D24</f>
@@ -25373,10 +25378,10 @@
     <row r="19" spans="1:10">
       <c r="A19" s="285"/>
       <c r="B19" s="306" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C19" s="297" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D19" s="321">
         <f>UTURN!D25</f>
@@ -25404,10 +25409,10 @@
     <row r="20" spans="1:10">
       <c r="A20" s="285"/>
       <c r="B20" s="306" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C20" s="297" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D20" s="321">
         <f>UTURN!D26</f>
@@ -25462,10 +25467,10 @@
     <row r="23" spans="1:10">
       <c r="A23" s="295"/>
       <c r="B23" s="278" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C23" s="302" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D23" s="320">
         <f>UTURN!D29</f>
@@ -25520,10 +25525,10 @@
     <row r="26" spans="1:10">
       <c r="A26" s="295"/>
       <c r="B26" s="278" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C26" s="302" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D26" s="320">
         <f>UTURN!D32</f>
@@ -25588,10 +25593,10 @@
     <row r="29" spans="1:10">
       <c r="A29" s="281"/>
       <c r="B29" s="306" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="325" t="s">
         <v>434</v>
-      </c>
-      <c r="C29" s="325" t="s">
-        <v>435</v>
       </c>
       <c r="D29" s="321">
         <f>UTURN!D35</f>
@@ -25616,10 +25621,10 @@
     <row r="30" spans="1:10">
       <c r="A30" s="285"/>
       <c r="B30" s="306" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C30" s="325" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D30" s="321">
         <f>UTURN!D36</f>
@@ -25644,10 +25649,10 @@
     <row r="31" spans="1:10">
       <c r="A31" s="285"/>
       <c r="B31" s="306" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="325" t="s">
         <v>438</v>
-      </c>
-      <c r="C31" s="325" t="s">
-        <v>439</v>
       </c>
       <c r="D31" s="321">
         <f>UTURN!D37</f>
@@ -25672,10 +25677,10 @@
     <row r="32" spans="1:10">
       <c r="A32" s="285"/>
       <c r="B32" s="306" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="325" t="s">
         <v>440</v>
-      </c>
-      <c r="C32" s="325" t="s">
-        <v>441</v>
       </c>
       <c r="D32" s="321">
         <f>UTURN!D38</f>
@@ -25700,10 +25705,10 @@
     <row r="33" spans="1:10">
       <c r="A33" s="285"/>
       <c r="B33" s="306" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="325" t="s">
         <v>442</v>
-      </c>
-      <c r="C33" s="325" t="s">
-        <v>443</v>
       </c>
       <c r="D33" s="321">
         <f>UTURN!D39</f>
@@ -25728,10 +25733,10 @@
     <row r="34" spans="1:10">
       <c r="A34" s="285"/>
       <c r="B34" s="306" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" s="325" t="s">
         <v>444</v>
-      </c>
-      <c r="C34" s="325" t="s">
-        <v>445</v>
       </c>
       <c r="D34" s="321">
         <f>UTURN!D40</f>
@@ -25756,10 +25761,10 @@
     <row r="35" spans="1:10">
       <c r="A35" s="281"/>
       <c r="B35" s="306" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" s="325" t="s">
         <v>446</v>
-      </c>
-      <c r="C35" s="325" t="s">
-        <v>447</v>
       </c>
       <c r="D35" s="321">
         <f>UTURN!D41</f>
@@ -25784,10 +25789,10 @@
     <row r="36" spans="1:9">
       <c r="A36" s="295"/>
       <c r="B36" s="306" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="325" t="s">
         <v>448</v>
-      </c>
-      <c r="C36" s="325" t="s">
-        <v>449</v>
       </c>
       <c r="D36" s="321">
         <f>UTURN!D42</f>
@@ -25810,10 +25815,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="306" t="s">
+        <v>449</v>
+      </c>
+      <c r="C37" s="325" t="s">
         <v>450</v>
-      </c>
-      <c r="C37" s="325" t="s">
-        <v>451</v>
       </c>
       <c r="D37" s="321">
         <f>UTURN!D43</f>
@@ -25836,7 +25841,7 @@
     </row>
     <row r="39" spans="7:9">
       <c r="G39" s="308" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H39" s="309"/>
       <c r="I39" s="290">
@@ -25846,7 +25851,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" s="396" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H40" s="395">
         <f>SUM(H6:H37)</f>
@@ -25863,7 +25868,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716123308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -25873,15 +25878,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716123308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -25906,7 +25911,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="367" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -26012,22 +26017,22 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="93" t="s">
+      <c r="D5" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>462</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="79" t="s">
+      <c r="F5" s="187" t="s">
         <v>463</v>
-      </c>
-      <c r="F5" s="187" t="s">
-        <v>464</v>
       </c>
       <c r="G5" s="190"/>
       <c r="H5" s="190"/>
@@ -26044,10 +26049,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C6" s="245" t="n">
         <v>40</v>
@@ -26075,10 +26080,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="246" t="n">
         <v>40</v>
@@ -28195,7 +28200,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1715850695" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1716123308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -28205,15 +28210,15 @@
     <oddFooter>&amp;L&amp;"Helvetica"&amp;7&amp;K000000www.flathold.com&amp;C&amp;"Helvetica"&amp;7&amp;K000000&amp;P/&amp;N&amp;R&amp;"Helvetica"&amp;7&amp;K000000&amp;F</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1715850695" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1716123308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1715850695" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1716123308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
